--- a/KIK01接続一覧表.xlsx
+++ b/KIK01接続一覧表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="122">
   <si>
     <t>KIK01接続一覧表</t>
     <rPh sb="5" eb="7">
@@ -28,10 +28,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2017.10.17</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>NucleoF446RE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -479,6 +475,26 @@
   </si>
   <si>
     <t>Arduino Header</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017.10.25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CheckPin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Check2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Check1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SyncOut</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1043,8 +1059,8 @@
   </sheetPr>
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1068,49 +1084,49 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="5" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="5" customFormat="1">
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="5" customFormat="1">
       <c r="B6" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="F6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="J6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="M6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1118,13 +1134,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I7">
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1132,13 +1148,13 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I8">
         <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1146,22 +1162,22 @@
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="13"/>
       <c r="I9">
         <v>6</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="2"/>
       <c r="M9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1169,22 +1185,22 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="13"/>
       <c r="I10">
         <v>8</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="12"/>
       <c r="M10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1192,17 +1208,17 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="13"/>
       <c r="I11">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1210,17 +1226,17 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="13"/>
       <c r="I12">
         <v>12</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1228,17 +1244,17 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="13"/>
       <c r="I13">
         <v>14</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1246,24 +1262,24 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="13"/>
       <c r="I14">
         <v>16</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1271,24 +1287,24 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="13"/>
       <c r="I15">
         <v>18</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1296,24 +1312,24 @@
         <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="13"/>
       <c r="I16">
         <v>20</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L16" s="12"/>
       <c r="M16" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:14">
@@ -1321,24 +1337,24 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="13"/>
       <c r="I17">
         <v>22</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L17" s="12"/>
       <c r="M17" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="2:14">
@@ -1346,17 +1362,17 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="13"/>
       <c r="I18">
         <v>24</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:14">
@@ -1364,17 +1380,17 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="13"/>
       <c r="I19">
         <v>26</v>
       </c>
       <c r="J19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="2:14">
@@ -1382,17 +1398,17 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="13"/>
       <c r="I20">
         <v>28</v>
       </c>
       <c r="J20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="2:14">
@@ -1400,17 +1416,17 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="13"/>
       <c r="I21">
         <v>30</v>
       </c>
       <c r="J21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="2:14">
@@ -1418,24 +1434,24 @@
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="13"/>
       <c r="I22">
         <v>32</v>
       </c>
       <c r="J22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="2:14">
@@ -1443,17 +1459,17 @@
         <v>33</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="13"/>
       <c r="I23">
         <v>34</v>
       </c>
       <c r="J23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="2:14">
@@ -1461,16 +1477,16 @@
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I24">
         <v>36</v>
       </c>
       <c r="J24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="2:14">
@@ -1478,53 +1494,53 @@
         <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I25">
         <v>38</v>
       </c>
       <c r="J25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="2:14" s="5" customFormat="1">
       <c r="B27" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="2:14" s="5" customFormat="1">
       <c r="B28" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="F28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="I28" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I28" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="J28" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K28" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="K28" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="M28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N28" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="29" spans="2:14">
@@ -1532,13 +1548,13 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K29" s="13"/>
     </row>
@@ -1547,16 +1563,22 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>119</v>
       </c>
       <c r="I30">
         <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K30" s="13"/>
     </row>
@@ -1565,16 +1587,22 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>120</v>
       </c>
       <c r="I31">
         <v>6</v>
       </c>
       <c r="J31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K31" s="13"/>
     </row>
@@ -1583,16 +1611,16 @@
         <v>7</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I32">
         <v>8</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K32" s="13"/>
     </row>
@@ -1601,24 +1629,24 @@
         <v>9</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" t="s">
         <v>83</v>
-      </c>
-      <c r="G33" t="s">
-        <v>84</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33">
         <v>10</v>
       </c>
       <c r="J33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K33" s="13"/>
     </row>
@@ -1627,24 +1655,24 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34">
         <v>12</v>
       </c>
       <c r="J34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K34" s="13"/>
     </row>
@@ -1653,17 +1681,17 @@
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35">
         <v>14</v>
       </c>
       <c r="J35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K35" s="13"/>
     </row>
@@ -1672,17 +1700,17 @@
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36">
         <v>16</v>
       </c>
       <c r="J36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K36" s="13"/>
     </row>
@@ -1691,17 +1719,23 @@
         <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="G37" t="s">
+        <v>120</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37">
         <v>18</v>
       </c>
       <c r="J37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K37" s="13"/>
     </row>
@@ -1710,32 +1744,32 @@
         <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H38" s="15"/>
       <c r="I38">
         <v>20</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K38" s="13"/>
       <c r="L38" s="9"/>
       <c r="M38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="2:14">
@@ -1743,24 +1777,24 @@
         <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39">
         <v>22</v>
       </c>
       <c r="J39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K39" s="13"/>
     </row>
@@ -1769,24 +1803,24 @@
         <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H40" s="13"/>
       <c r="I40">
         <v>24</v>
       </c>
       <c r="J40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K40" s="13"/>
     </row>
@@ -1795,32 +1829,32 @@
         <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41">
         <v>26</v>
       </c>
       <c r="J41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K41" s="13"/>
       <c r="L41" s="11"/>
       <c r="M41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="2:14">
@@ -1828,24 +1862,24 @@
         <v>27</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42">
         <v>28</v>
       </c>
       <c r="J42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K42" s="13"/>
     </row>
@@ -1854,32 +1888,32 @@
         <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43">
         <v>30</v>
       </c>
       <c r="J43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K43" s="13"/>
       <c r="L43" s="10"/>
       <c r="M43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="2:14" ht="14.25" thickBot="1">
@@ -1887,24 +1921,24 @@
         <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44">
         <v>32</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K44" s="13"/>
     </row>
@@ -1913,24 +1947,27 @@
         <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>121</v>
       </c>
       <c r="I45">
         <v>34</v>
       </c>
       <c r="J45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K45" s="13"/>
       <c r="L45" s="15"/>
       <c r="M45" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="2:14">
@@ -1938,16 +1975,16 @@
         <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I46">
         <v>36</v>
       </c>
       <c r="J46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K46" s="13"/>
     </row>
@@ -1956,29 +1993,29 @@
         <v>37</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I47">
         <v>38</v>
       </c>
       <c r="J47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K47" s="13"/>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="24"/>
       <c r="C49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="25"/>
       <c r="C50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/KIK01接続一覧表.xlsx
+++ b/KIK01接続一覧表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="142">
   <si>
     <t>KIK01接続一覧表</t>
     <rPh sb="5" eb="7">
@@ -478,10 +478,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2017.10.25</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CheckPin</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -495,6 +491,90 @@
   </si>
   <si>
     <t>SyncOut</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POTx8 LunchBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPI_IN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PWRIN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3V3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nucleo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPI_SCK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPI_MISO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPI_MOSI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPI_CS1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPI_CS2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPI_CS3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPI_CS4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPI_OUT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POTx16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PWROUT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POTx16 PizzaBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POTx8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017.11.02</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -528,7 +608,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -598,6 +678,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,7 +767,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -758,6 +844,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1057,10 +1155,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:R109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+      <selection activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1077,27 +1175,27 @@
     <col min="13" max="14" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1">
+    <row r="1" spans="1:18" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="5" customFormat="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="5" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="5" customFormat="1">
+    <row r="5" spans="1:18" s="5" customFormat="1">
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1">
+    <row r="6" spans="1:18" s="5" customFormat="1">
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1128,8 +1226,9 @@
       <c r="N6" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="R6"/>
+    </row>
+    <row r="7" spans="1:18">
       <c r="B7">
         <v>1</v>
       </c>
@@ -1143,7 +1242,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:18">
       <c r="B8">
         <v>3</v>
       </c>
@@ -1157,7 +1256,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:18">
       <c r="B9">
         <v>5</v>
       </c>
@@ -1180,7 +1279,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:18">
       <c r="B10">
         <v>7</v>
       </c>
@@ -1203,7 +1302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:18">
       <c r="B11">
         <v>9</v>
       </c>
@@ -1221,7 +1320,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:18">
       <c r="B12">
         <v>11</v>
       </c>
@@ -1239,7 +1338,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:18">
       <c r="B13">
         <v>13</v>
       </c>
@@ -1257,7 +1356,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:18">
       <c r="B14">
         <v>15</v>
       </c>
@@ -1282,7 +1381,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:18">
       <c r="B15">
         <v>17</v>
       </c>
@@ -1307,7 +1406,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:18">
       <c r="B16">
         <v>19</v>
       </c>
@@ -1569,10 +1668,10 @@
         <v>99</v>
       </c>
       <c r="F30" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" s="13" t="s">
         <v>118</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>119</v>
       </c>
       <c r="I30">
         <v>4</v>
@@ -1593,10 +1692,10 @@
         <v>100</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I31">
         <v>6</v>
@@ -1725,10 +1824,10 @@
         <v>104</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37">
@@ -1953,7 +2052,7 @@
         <v>112</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I45">
         <v>34</v>
@@ -2006,23 +2105,450 @@
       </c>
       <c r="K47" s="13"/>
     </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="24"/>
-      <c r="C49" t="s">
+    <row r="48" spans="2:14">
+      <c r="D48" s="14"/>
+      <c r="K48" s="13"/>
+    </row>
+    <row r="49" spans="3:11">
+      <c r="C49" s="24"/>
+      <c r="D49" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50" s="25"/>
-      <c r="C50" t="s">
+      <c r="K49" s="13"/>
+    </row>
+    <row r="50" spans="3:11">
+      <c r="C50" s="25"/>
+      <c r="D50" t="s">
         <v>116</v>
+      </c>
+      <c r="K50" s="13"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="B68" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="5" customFormat="1">
+      <c r="B69" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s">
+        <v>126</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="E71" s="12"/>
+      <c r="F71" t="s">
+        <v>126</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="B72" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="5" customFormat="1">
+      <c r="B73" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" t="s">
+        <v>126</v>
+      </c>
+      <c r="G74" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="E75" s="8"/>
+      <c r="F75" t="s">
+        <v>126</v>
+      </c>
+      <c r="G75" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="E76" s="7"/>
+      <c r="F76" t="s">
+        <v>126</v>
+      </c>
+      <c r="G76" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="E77" s="9"/>
+      <c r="F77" t="s">
+        <v>126</v>
+      </c>
+      <c r="G77" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="E78" s="10"/>
+      <c r="F78" t="s">
+        <v>126</v>
+      </c>
+      <c r="G78" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="14.25" thickBot="1">
+      <c r="B79">
+        <v>6</v>
+      </c>
+      <c r="E79" s="11"/>
+      <c r="F79" t="s">
+        <v>126</v>
+      </c>
+      <c r="G79" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="14.25" thickBot="1">
+      <c r="B80">
+        <v>7</v>
+      </c>
+      <c r="E80" s="26"/>
+      <c r="F80" t="s">
+        <v>126</v>
+      </c>
+      <c r="G80" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81">
+        <v>8</v>
+      </c>
+      <c r="E81" s="27"/>
+      <c r="F81" t="s">
+        <v>126</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" s="5" customFormat="1">
+      <c r="B84" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="E85" s="6"/>
+      <c r="F85" t="s">
+        <v>135</v>
+      </c>
+      <c r="G85" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="E86" s="8"/>
+      <c r="F86" t="s">
+        <v>135</v>
+      </c>
+      <c r="G86" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="E87" s="7"/>
+      <c r="F87" t="s">
+        <v>135</v>
+      </c>
+      <c r="G87" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88">
+        <v>4</v>
+      </c>
+      <c r="E88" s="9"/>
+      <c r="F88" t="s">
+        <v>135</v>
+      </c>
+      <c r="G88" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="E89" s="10"/>
+      <c r="F89" t="s">
+        <v>135</v>
+      </c>
+      <c r="G89" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="B90">
+        <v>6</v>
+      </c>
+      <c r="E90" t="s">
+        <v>137</v>
+      </c>
+      <c r="F90" t="s">
+        <v>135</v>
+      </c>
+      <c r="G90" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91">
+        <v>7</v>
+      </c>
+      <c r="E91" s="11"/>
+      <c r="F91" t="s">
+        <v>135</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="B92" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" s="5" customFormat="1">
+      <c r="B93" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="E94" s="29"/>
+      <c r="F94" t="s">
+        <v>135</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s">
+        <v>135</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="B98" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="5" customFormat="1">
+      <c r="B99" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="E100" s="6"/>
+      <c r="F100" t="s">
+        <v>140</v>
+      </c>
+      <c r="G100" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="E101" s="8"/>
+      <c r="F101" t="s">
+        <v>140</v>
+      </c>
+      <c r="G101" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="E102" s="7"/>
+      <c r="F102" t="s">
+        <v>140</v>
+      </c>
+      <c r="G102" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="E103" s="9"/>
+      <c r="F103" t="s">
+        <v>140</v>
+      </c>
+      <c r="G103" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="E104" s="10"/>
+      <c r="F104" t="s">
+        <v>140</v>
+      </c>
+      <c r="G104" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="E105" s="11"/>
+      <c r="F105" t="s">
+        <v>140</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="B106" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="5" customFormat="1">
+      <c r="B107" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s">
+        <v>140</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="E109" s="29"/>
+      <c r="F109" t="s">
+        <v>140</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="89" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" fitToHeight="2" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F&amp;CPage &amp;P&amp;R&amp;D</oddFooter>
+  </headerFooter>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="50" max="16383" man="1"/>
+    <brk id="66" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 

--- a/KIK01接続一覧表.xlsx
+++ b/KIK01接続一覧表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="183">
   <si>
     <t>KIK01接続一覧表</t>
     <rPh sb="5" eb="7">
@@ -372,10 +372,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DCOPWR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PWRIN</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -574,7 +570,178 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2017.11.02</t>
+    <t>VCA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ENV_GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アナログ信号</t>
+    <rPh sb="4" eb="6">
+      <t>シンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AD8402_DCO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nucleo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPI_SCK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPI_MOSI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPI_CS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPI_GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPI_GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OUT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VCA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OUT_GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PSU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Digital+5V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Digital_GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dual_OTA_VCA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WAVE_IN_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ENV_IN_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OUT_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOS01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RCA-J</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OUT1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OUT1_GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ENV_DAC2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WAVE_IN_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ENV_IN_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OUT_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DCO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ENV_DAC1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ENV_GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OUT2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OUT2_GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOS01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WHITE_OUT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BLUE_OUT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PINK_OUT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PSU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Analog_GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Analog+5V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Analog-5V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017.11.24</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -582,7 +749,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,8 +774,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -684,6 +859,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,7 +954,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -856,6 +1043,45 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1155,10 +1381,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R109"/>
+  <dimension ref="A1:R161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K72" sqref="K72"/>
+      <selection activeCell="G152" sqref="G152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1182,7 +1408,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="5" customFormat="1">
@@ -1200,10 +1426,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>2</v>
@@ -1215,10 +1441,10 @@
         <v>4</v>
       </c>
       <c r="J6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>2</v>
@@ -1273,7 +1499,7 @@
       <c r="K9" s="13"/>
       <c r="L9" s="2"/>
       <c r="M9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>29</v>
@@ -1296,7 +1522,7 @@
       <c r="K10" s="13"/>
       <c r="L10" s="12"/>
       <c r="M10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N10" t="s">
         <v>13</v>
@@ -1398,13 +1624,9 @@
       <c r="K15" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="30"/>
     </row>
     <row r="16" spans="1:18">
       <c r="B16">
@@ -1450,10 +1672,10 @@
       </c>
       <c r="L17" s="12"/>
       <c r="M17" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="N17" t="s">
-        <v>13</v>
+        <v>140</v>
+      </c>
+      <c r="N17" s="31" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="2:14">
@@ -1507,7 +1729,7 @@
         <v>31</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="2:14">
@@ -1525,7 +1747,7 @@
         <v>32</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="2:14">
@@ -1543,14 +1765,14 @@
         <v>33</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="N22" t="s">
-        <v>90</v>
+      <c r="N22" s="31" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="2:14">
@@ -1568,7 +1790,7 @@
         <v>34</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="2:14">
@@ -1585,7 +1807,7 @@
         <v>35</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="2:14">
@@ -1602,7 +1824,7 @@
         <v>36</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="2:14" s="5" customFormat="1">
@@ -1615,10 +1837,10 @@
         <v>4</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>2</v>
@@ -1630,10 +1852,10 @@
         <v>4</v>
       </c>
       <c r="J28" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K28" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>2</v>
@@ -1665,13 +1887,13 @@
         <v>39</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F30" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="G30" s="13" t="s">
         <v>117</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>118</v>
       </c>
       <c r="I30">
         <v>4</v>
@@ -1689,13 +1911,13 @@
         <v>40</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I31">
         <v>6</v>
@@ -1734,7 +1956,7 @@
         <v>13</v>
       </c>
       <c r="E33" s="12"/>
-      <c r="F33" t="s">
+      <c r="F33" s="25" t="s">
         <v>82</v>
       </c>
       <c r="G33" t="s">
@@ -1757,14 +1979,14 @@
         <v>42</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="G34" t="s">
-        <v>89</v>
+      <c r="G34" s="31" t="s">
+        <v>88</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34">
@@ -1783,7 +2005,7 @@
         <v>43</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35">
@@ -1802,7 +2024,7 @@
         <v>44</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36">
@@ -1821,13 +2043,13 @@
         <v>45</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37">
@@ -1846,16 +2068,16 @@
         <v>46</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E38" s="22"/>
-      <c r="F38" t="s">
+      <c r="F38" s="25" t="s">
         <v>82</v>
       </c>
       <c r="G38" t="s">
         <v>84</v>
       </c>
-      <c r="H38" s="15"/>
+      <c r="H38" s="32"/>
       <c r="I38">
         <v>20</v>
       </c>
@@ -1863,7 +2085,7 @@
         <v>13</v>
       </c>
       <c r="K38" s="13"/>
-      <c r="L38" s="9"/>
+      <c r="L38" s="29"/>
       <c r="M38" t="s">
         <v>75</v>
       </c>
@@ -1879,10 +2101,10 @@
         <v>47</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E39" s="11"/>
-      <c r="F39" t="s">
+      <c r="F39" s="25" t="s">
         <v>82</v>
       </c>
       <c r="G39" t="s">
@@ -1905,10 +2127,10 @@
         <v>48</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E40" s="10"/>
-      <c r="F40" t="s">
+      <c r="F40" s="25" t="s">
         <v>82</v>
       </c>
       <c r="G40" t="s">
@@ -1931,10 +2153,10 @@
         <v>49</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E41" s="9"/>
-      <c r="F41" t="s">
+      <c r="F41" s="25" t="s">
         <v>82</v>
       </c>
       <c r="G41" t="s">
@@ -1948,7 +2170,7 @@
         <v>64</v>
       </c>
       <c r="K41" s="13"/>
-      <c r="L41" s="11"/>
+      <c r="L41" s="7"/>
       <c r="M41" t="s">
         <v>75</v>
       </c>
@@ -1964,10 +2186,10 @@
         <v>50</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E42" s="8"/>
-      <c r="F42" t="s">
+      <c r="F42" s="25" t="s">
         <v>82</v>
       </c>
       <c r="G42" t="s">
@@ -1990,10 +2212,10 @@
         <v>51</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E43" s="7"/>
-      <c r="F43" t="s">
+      <c r="F43" s="25" t="s">
         <v>82</v>
       </c>
       <c r="G43" t="s">
@@ -2007,7 +2229,7 @@
         <v>67</v>
       </c>
       <c r="K43" s="13"/>
-      <c r="L43" s="10"/>
+      <c r="L43" s="6"/>
       <c r="M43" t="s">
         <v>75</v>
       </c>
@@ -2015,7 +2237,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="2:14" ht="14.25" thickBot="1">
+    <row r="44" spans="2:14">
       <c r="B44">
         <v>31</v>
       </c>
@@ -2023,10 +2245,10 @@
         <v>52</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E44" s="6"/>
-      <c r="F44" t="s">
+      <c r="F44" s="25" t="s">
         <v>82</v>
       </c>
       <c r="G44" t="s">
@@ -2041,7 +2263,7 @@
       </c>
       <c r="K44" s="13"/>
     </row>
-    <row r="45" spans="2:14" ht="14.25" thickBot="1">
+    <row r="45" spans="2:14">
       <c r="B45">
         <v>33</v>
       </c>
@@ -2049,10 +2271,10 @@
         <v>53</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I45">
         <v>34</v>
@@ -2061,7 +2283,7 @@
         <v>69</v>
       </c>
       <c r="K45" s="13"/>
-      <c r="L45" s="15"/>
+      <c r="L45" s="33"/>
       <c r="M45" s="14" t="s">
         <v>75</v>
       </c>
@@ -2077,7 +2299,7 @@
         <v>54</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I46">
         <v>36</v>
@@ -2095,7 +2317,7 @@
         <v>55</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I47">
         <v>38</v>
@@ -2109,285 +2331,425 @@
       <c r="D48" s="14"/>
       <c r="K48" s="13"/>
     </row>
-    <row r="49" spans="3:11">
+    <row r="49" spans="1:11">
       <c r="C49" s="24"/>
       <c r="D49" t="s">
+        <v>114</v>
+      </c>
+      <c r="K49" s="13"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="C50" s="31"/>
+      <c r="D50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K50" s="13"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="C51" s="25"/>
+      <c r="D51" t="s">
         <v>115</v>
       </c>
-      <c r="K49" s="13"/>
-    </row>
-    <row r="50" spans="3:11">
-      <c r="C50" s="25"/>
-      <c r="D50" t="s">
-        <v>116</v>
-      </c>
-      <c r="K50" s="13"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="5" t="s">
+      <c r="K51" s="13"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="B54" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="5" customFormat="1">
+      <c r="B55" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s">
+        <v>125</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="E57" s="12"/>
+      <c r="F57" t="s">
+        <v>125</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="B58" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
-      <c r="B68" s="5" t="s">
+    <row r="59" spans="1:11" s="5" customFormat="1">
+      <c r="B59" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" t="s">
+        <v>125</v>
+      </c>
+      <c r="G60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="F61" t="s">
+        <v>125</v>
+      </c>
+      <c r="G61" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="E62" s="7"/>
+      <c r="F62" t="s">
+        <v>125</v>
+      </c>
+      <c r="G62" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="E63" s="9"/>
+      <c r="F63" t="s">
+        <v>125</v>
+      </c>
+      <c r="G63" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="E64" s="10"/>
+      <c r="F64" t="s">
+        <v>125</v>
+      </c>
+      <c r="G64" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="14.25" thickBot="1">
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="E65" s="11"/>
+      <c r="F65" t="s">
+        <v>125</v>
+      </c>
+      <c r="G65" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" ht="14.25" thickBot="1">
+      <c r="B66">
+        <v>7</v>
+      </c>
+      <c r="E66" s="26"/>
+      <c r="F66" t="s">
+        <v>125</v>
+      </c>
+      <c r="G66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67">
+        <v>8</v>
+      </c>
+      <c r="E67" s="27"/>
+      <c r="F67" t="s">
+        <v>125</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" s="5" customFormat="1">
+      <c r="B70" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="E71" s="6"/>
+      <c r="F71" t="s">
+        <v>134</v>
+      </c>
+      <c r="G71" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="E72" s="8"/>
+      <c r="F72" t="s">
+        <v>134</v>
+      </c>
+      <c r="G72" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="E73" s="7"/>
+      <c r="F73" t="s">
+        <v>134</v>
+      </c>
+      <c r="G73" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="E74" s="9"/>
+      <c r="F74" t="s">
+        <v>134</v>
+      </c>
+      <c r="G74" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="E75" s="10"/>
+      <c r="F75" t="s">
+        <v>134</v>
+      </c>
+      <c r="G75" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76">
+        <v>6</v>
+      </c>
+      <c r="E76" t="s">
+        <v>136</v>
+      </c>
+      <c r="F76" t="s">
+        <v>134</v>
+      </c>
+      <c r="G76" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77">
+        <v>7</v>
+      </c>
+      <c r="E77" s="11"/>
+      <c r="F77" t="s">
+        <v>134</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" s="5" customFormat="1">
+      <c r="B79" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="E80" s="29"/>
+      <c r="F80" t="s">
+        <v>134</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s">
+        <v>134</v>
+      </c>
+      <c r="G81" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="5" customFormat="1">
-      <c r="B69" s="5" t="s">
+    <row r="83" spans="1:7">
+      <c r="A83" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="B84" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="5" customFormat="1">
+      <c r="B85" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F69" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G69" s="5" t="s">
+      <c r="F85" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G85" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
-      <c r="B70">
+    <row r="86" spans="1:7">
+      <c r="B86">
         <v>1</v>
       </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s">
+      <c r="E86" s="6"/>
+      <c r="F86" t="s">
+        <v>139</v>
+      </c>
+      <c r="G86" t="s">
         <v>126</v>
       </c>
-      <c r="G70" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="B71">
-        <v>2</v>
-      </c>
-      <c r="E71" s="12"/>
-      <c r="F71" t="s">
-        <v>126</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="B72" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" s="5" customFormat="1">
-      <c r="B73" s="5" t="s">
+    </row>
+    <row r="87" spans="1:7">
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="E87" s="8"/>
+      <c r="F87" t="s">
+        <v>139</v>
+      </c>
+      <c r="G87" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="E88" s="7"/>
+      <c r="F88" t="s">
+        <v>139</v>
+      </c>
+      <c r="G88" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="B89">
         <v>4</v>
       </c>
-      <c r="F73" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="E74" s="6"/>
-      <c r="F74" t="s">
-        <v>126</v>
-      </c>
-      <c r="G74" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="B75">
-        <v>2</v>
-      </c>
-      <c r="E75" s="8"/>
-      <c r="F75" t="s">
-        <v>126</v>
-      </c>
-      <c r="G75" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="B76">
-        <v>3</v>
-      </c>
-      <c r="E76" s="7"/>
-      <c r="F76" t="s">
-        <v>126</v>
-      </c>
-      <c r="G76" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="B77">
-        <v>4</v>
-      </c>
-      <c r="E77" s="9"/>
-      <c r="F77" t="s">
-        <v>126</v>
-      </c>
-      <c r="G77" t="s">
+      <c r="E89" s="9"/>
+      <c r="F89" t="s">
+        <v>139</v>
+      </c>
+      <c r="G89" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
-      <c r="B78">
+    <row r="90" spans="1:7">
+      <c r="B90">
         <v>5</v>
       </c>
-      <c r="E78" s="10"/>
-      <c r="F78" t="s">
-        <v>126</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="E90" s="10"/>
+      <c r="F90" t="s">
+        <v>139</v>
+      </c>
+      <c r="G90" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B79">
+    <row r="91" spans="1:7">
+      <c r="B91">
         <v>6</v>
-      </c>
-      <c r="E79" s="11"/>
-      <c r="F79" t="s">
-        <v>126</v>
-      </c>
-      <c r="G79" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B80">
-        <v>7</v>
-      </c>
-      <c r="E80" s="26"/>
-      <c r="F80" t="s">
-        <v>126</v>
-      </c>
-      <c r="G80" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7">
-      <c r="B81">
-        <v>8</v>
-      </c>
-      <c r="E81" s="27"/>
-      <c r="F81" t="s">
-        <v>126</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7">
-      <c r="B83" s="28" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" s="5" customFormat="1">
-      <c r="B84" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7">
-      <c r="B85">
-        <v>1</v>
-      </c>
-      <c r="E85" s="6"/>
-      <c r="F85" t="s">
-        <v>135</v>
-      </c>
-      <c r="G85" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7">
-      <c r="B86">
-        <v>2</v>
-      </c>
-      <c r="E86" s="8"/>
-      <c r="F86" t="s">
-        <v>135</v>
-      </c>
-      <c r="G86" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7">
-      <c r="B87">
-        <v>3</v>
-      </c>
-      <c r="E87" s="7"/>
-      <c r="F87" t="s">
-        <v>135</v>
-      </c>
-      <c r="G87" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7">
-      <c r="B88">
-        <v>4</v>
-      </c>
-      <c r="E88" s="9"/>
-      <c r="F88" t="s">
-        <v>135</v>
-      </c>
-      <c r="G88" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7">
-      <c r="B89">
-        <v>5</v>
-      </c>
-      <c r="E89" s="10"/>
-      <c r="F89" t="s">
-        <v>135</v>
-      </c>
-      <c r="G89" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7">
-      <c r="B90">
-        <v>6</v>
-      </c>
-      <c r="E90" t="s">
-        <v>137</v>
-      </c>
-      <c r="F90" t="s">
-        <v>135</v>
-      </c>
-      <c r="G90" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7">
-      <c r="B91">
-        <v>7</v>
       </c>
       <c r="E91" s="11"/>
       <c r="F91" t="s">
-        <v>135</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7">
+        <v>139</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="B92" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" s="5" customFormat="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="5" customFormat="1">
       <c r="B93" s="5" t="s">
         <v>4</v>
       </c>
@@ -2398,25 +2760,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="2:7">
+    <row r="94" spans="1:7">
       <c r="B94">
         <v>1</v>
       </c>
-      <c r="E94" s="29"/>
+      <c r="E94" s="2"/>
       <c r="F94" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="B95">
         <v>2</v>
       </c>
-      <c r="E95" s="2"/>
+      <c r="E95" s="29"/>
       <c r="F95" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>124</v>
@@ -2424,12 +2786,12 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="B98" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:7" s="5" customFormat="1">
@@ -2444,110 +2806,625 @@
       </c>
     </row>
     <row r="100" spans="1:7">
+      <c r="B100">
+        <v>1</v>
+      </c>
       <c r="E100" s="6"/>
       <c r="F100" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G100" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="E101" s="8"/>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="E101" s="7"/>
       <c r="F101" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G101" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="E102" s="7"/>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="E102" s="2"/>
       <c r="F102" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G102" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="E103" s="9"/>
+      <c r="B103">
+        <v>4</v>
+      </c>
+      <c r="E103" s="29"/>
       <c r="F103" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G103" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="E104" s="10"/>
-      <c r="F104" t="s">
-        <v>140</v>
-      </c>
-      <c r="G104" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="E105" s="11"/>
-      <c r="F105" t="s">
-        <v>140</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="B106" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" s="5" customFormat="1">
-      <c r="B107" s="5" t="s">
+      <c r="B104" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="14.25" thickBot="1">
+      <c r="B105" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F107" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G107" s="5" t="s">
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G105" s="5" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="106" spans="1:7" ht="14.25" thickBot="1">
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="E106" s="15"/>
+      <c r="F106" t="s">
+        <v>151</v>
+      </c>
+      <c r="G106" s="31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="E107" s="12"/>
+      <c r="F107" t="s">
+        <v>151</v>
+      </c>
+      <c r="G107" s="31" t="s">
+        <v>152</v>
+      </c>
+    </row>
     <row r="108" spans="1:7">
-      <c r="B108">
+      <c r="B108" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="5" customFormat="1">
+      <c r="B109" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="B110">
         <v>1</v>
       </c>
-      <c r="E108" s="2"/>
-      <c r="F108" t="s">
-        <v>140</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="B109">
-        <v>2</v>
-      </c>
-      <c r="E109" s="29"/>
-      <c r="F109" t="s">
-        <v>140</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>125</v>
+      <c r="E110" s="2"/>
+      <c r="F110" t="s">
+        <v>153</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="E111" s="12"/>
+      <c r="F111" t="s">
+        <v>153</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="B114" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B115" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="14.25" thickBot="1">
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="E116" s="15"/>
+      <c r="F116" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="G116" s="31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="E117" s="12"/>
+      <c r="F117" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="G117" s="31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="B118" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" s="5" customFormat="1">
+      <c r="B119" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G120" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="B121">
+        <v>2</v>
+      </c>
+      <c r="E121" s="13"/>
+      <c r="F121" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="G121" s="32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="B122" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" s="5" customFormat="1">
+      <c r="B123" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G124" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="E125" s="13"/>
+      <c r="F125" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G125" s="32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="B126" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" s="5" customFormat="1">
+      <c r="B127" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="E128" s="2"/>
+      <c r="F128" t="s">
+        <v>178</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="14.25" thickBot="1">
+      <c r="B129">
+        <v>2</v>
+      </c>
+      <c r="E129" s="12"/>
+      <c r="F129" t="s">
+        <v>178</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="14.25" thickBot="1">
+      <c r="B130">
+        <v>3</v>
+      </c>
+      <c r="E130" s="26"/>
+      <c r="F130" t="s">
+        <v>178</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="B133" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B134" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B135" s="34">
+        <v>1</v>
+      </c>
+      <c r="E135" s="35"/>
+      <c r="F135" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="G135" s="39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="B136">
+        <v>2</v>
+      </c>
+      <c r="E136" s="12"/>
+      <c r="F136" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="G136" s="31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="B137" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" s="5" customFormat="1">
+      <c r="B138" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" s="5" customFormat="1">
+      <c r="B139" s="34">
+        <v>1</v>
+      </c>
+      <c r="E139" s="37"/>
+      <c r="F139" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="G139" s="39" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="B140">
+        <v>2</v>
+      </c>
+      <c r="F140" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="G140" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="B141" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B142" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B143" s="34">
+        <v>1</v>
+      </c>
+      <c r="E143" s="38"/>
+      <c r="F143" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="G143" s="39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="B144">
+        <v>2</v>
+      </c>
+      <c r="E144" s="12"/>
+      <c r="F144" t="s">
+        <v>162</v>
+      </c>
+      <c r="G144" s="31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7">
+      <c r="B145" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" s="5" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B146" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" s="5" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B147" s="34">
+        <v>1</v>
+      </c>
+      <c r="E147" s="42"/>
+      <c r="F147" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="G147" s="39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7">
+      <c r="B148">
+        <v>2</v>
+      </c>
+      <c r="E148" s="12"/>
+      <c r="F148" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="G148" s="31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7">
+      <c r="B149" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" s="5" customFormat="1">
+      <c r="B150" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" s="5" customFormat="1">
+      <c r="B151" s="34">
+        <v>1</v>
+      </c>
+      <c r="E151" s="41"/>
+      <c r="F151" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="G151" s="39" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7">
+      <c r="B152">
+        <v>2</v>
+      </c>
+      <c r="E152" s="12"/>
+      <c r="F152" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="G152" s="31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7">
+      <c r="B153" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" s="5" customFormat="1">
+      <c r="B154" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" s="5" customFormat="1">
+      <c r="B155" s="34">
+        <v>1</v>
+      </c>
+      <c r="E155" s="40"/>
+      <c r="F155" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="G155" s="39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7">
+      <c r="B156">
+        <v>2</v>
+      </c>
+      <c r="E156" s="12"/>
+      <c r="F156" t="s">
+        <v>162</v>
+      </c>
+      <c r="G156" s="31" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7">
+      <c r="B157" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7" s="5" customFormat="1">
+      <c r="B158" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7">
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="E159" s="2"/>
+      <c r="F159" t="s">
+        <v>178</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" ht="14.25" thickBot="1">
+      <c r="B160">
+        <v>2</v>
+      </c>
+      <c r="E160" s="12"/>
+      <c r="F160" t="s">
+        <v>178</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7" ht="14.25" thickBot="1">
+      <c r="B161">
+        <v>3</v>
+      </c>
+      <c r="E161" s="26"/>
+      <c r="F161" t="s">
+        <v>178</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="90" fitToHeight="2" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" fitToHeight="2" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;F&amp;CPage &amp;P&amp;R&amp;D</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="50" max="16383" man="1"/>
-    <brk id="66" max="16383" man="1"/>
+    <brk id="51" max="16383" man="1"/>
+    <brk id="52" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>

--- a/KIK01接続一覧表.xlsx
+++ b/KIK01接続一覧表.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="22035" windowHeight="11445"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="22035" windowHeight="11445" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Nucleo" sheetId="1" r:id="rId1"/>
+    <sheet name="PeriPheral" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="188">
   <si>
     <t>KIK01接続一覧表</t>
     <rPh sb="5" eb="7">
@@ -741,7 +741,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2017.11.24</t>
+    <t>Sync</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SyncOut</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SyncIn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017.12.05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CN6/CN8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CN5/CN9</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1091,6 +1111,221 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3053014" y="1022684"/>
+          <a:ext cx="2336131" cy="3238500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3053013" y="1030966"/>
+          <a:ext cx="2336132" cy="3238500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>2360</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>2567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8557001" y="4836505"/>
+          <a:ext cx="2474140" cy="3289511"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>2360</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>7089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Connector 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8557001" y="4841027"/>
+          <a:ext cx="2474140" cy="3267129"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1381,2044 +1616,1127 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R161"/>
+  <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G152" sqref="G152"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.25" customWidth="1"/>
     <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.625" customWidth="1"/>
-    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="9" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.125" customWidth="1"/>
-    <col min="13" max="14" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.625" customWidth="1"/>
+    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.625" customWidth="1"/>
+    <col min="10" max="10" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3" customWidth="1"/>
+    <col min="12" max="12" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.125" customWidth="1"/>
+    <col min="15" max="16" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.625" customWidth="1"/>
+    <col min="18" max="18" width="3.125" customWidth="1"/>
+    <col min="19" max="20" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1">
+    <row r="1" spans="1:24" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" s="5" customFormat="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="5" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="5" customFormat="1">
+    <row r="5" spans="1:24" s="5" customFormat="1">
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" s="5" customFormat="1">
+      <c r="Q5" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="5" customFormat="1">
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="I6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="L6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="M6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="O6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="N6" s="5" t="s">
+      <c r="S6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="R6"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="X6"/>
+    </row>
+    <row r="7" spans="1:24">
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="E7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="O7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="I8">
+      <c r="L8">
         <v>4</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:24">
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="I9">
+      <c r="G9" s="13"/>
+      <c r="L9">
         <v>6</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="2"/>
-      <c r="M9" t="s">
+      <c r="N9" s="2"/>
+      <c r="O9" t="s">
         <v>87</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:24">
       <c r="B10">
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="I10">
+      <c r="G10" s="13"/>
+      <c r="L10">
         <v>8</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="12"/>
-      <c r="M10" t="s">
+      <c r="N10" s="12"/>
+      <c r="O10" t="s">
         <v>87</v>
       </c>
-      <c r="N10" t="s">
+      <c r="P10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+    </row>
+    <row r="11" spans="1:24">
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="I11">
+      <c r="G11" s="13"/>
+      <c r="L11">
         <v>10</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M11" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="Q11" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:24">
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="I12">
+      <c r="G12" s="13"/>
+      <c r="L12">
         <v>12</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="Q12" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:24">
       <c r="B13">
         <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="I13">
+      <c r="G13" s="13"/>
+      <c r="L13">
         <v>14</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="Q13" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:24">
       <c r="B14">
         <v>15</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="I14">
+      <c r="G14" s="13"/>
+      <c r="L14">
         <v>16</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="M14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="25" t="s">
+      <c r="R14" s="2"/>
+      <c r="S14" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="T14" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:24">
       <c r="B15">
         <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="I15">
+      <c r="G15" s="13"/>
+      <c r="L15">
         <v>18</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="M15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="30"/>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="30"/>
+    </row>
+    <row r="16" spans="1:24">
       <c r="B16">
         <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="I16">
+      <c r="G16" s="13"/>
+      <c r="L16">
         <v>20</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="25" t="s">
+      <c r="R16" s="12"/>
+      <c r="S16" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="N16" t="s">
+      <c r="T16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:20">
       <c r="B17">
         <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="I17">
+      <c r="G17" s="13"/>
+      <c r="L17">
         <v>22</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="25" t="s">
+      <c r="R17" s="12"/>
+      <c r="S17" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="N17" s="31" t="s">
+      <c r="T17" s="31" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:20">
       <c r="B18">
         <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="I18">
+      <c r="G18" s="13"/>
+      <c r="L18">
         <v>24</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:20">
       <c r="B19">
         <v>25</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="I19">
+      <c r="G19" s="13"/>
+      <c r="L19">
         <v>26</v>
       </c>
-      <c r="J19" t="s">
+      <c r="M19" t="s">
         <v>70</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:20">
       <c r="B20">
         <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="I20">
+      <c r="G20" s="13"/>
+      <c r="L20">
         <v>28</v>
       </c>
-      <c r="J20" t="s">
+      <c r="M20" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="20" t="s">
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:20">
       <c r="B21">
         <v>29</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="I21">
+      <c r="G21" s="13"/>
+      <c r="L21">
         <v>30</v>
       </c>
-      <c r="J21" t="s">
+      <c r="M21" t="s">
         <v>32</v>
       </c>
-      <c r="K21" s="20" t="s">
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:20">
       <c r="B22">
         <v>31</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="I22">
+      <c r="G22" s="13"/>
+      <c r="L22">
         <v>32</v>
       </c>
-      <c r="J22" t="s">
+      <c r="M22" t="s">
         <v>33</v>
       </c>
-      <c r="K22" s="20" t="s">
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="25" t="s">
+      <c r="R22" s="6"/>
+      <c r="S22" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="N22" s="31" t="s">
+      <c r="T22" s="31" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:20">
       <c r="B23">
         <v>33</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="I23">
+      <c r="G23" s="13"/>
+      <c r="L23">
         <v>34</v>
       </c>
-      <c r="J23" t="s">
+      <c r="M23" t="s">
         <v>34</v>
       </c>
-      <c r="K23" s="20" t="s">
+      <c r="Q23" s="20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:20">
       <c r="B24">
         <v>35</v>
       </c>
       <c r="C24" t="s">
         <v>21</v>
       </c>
-      <c r="I24">
+      <c r="L24">
         <v>36</v>
       </c>
-      <c r="J24" t="s">
+      <c r="M24" t="s">
         <v>35</v>
       </c>
-      <c r="K24" s="20" t="s">
+      <c r="Q24" s="20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:20">
       <c r="B25">
         <v>37</v>
       </c>
       <c r="C25" t="s">
         <v>22</v>
       </c>
-      <c r="I25">
+      <c r="L25">
         <v>38</v>
       </c>
-      <c r="J25" t="s">
+      <c r="M25" t="s">
         <v>36</v>
       </c>
-      <c r="K25" s="21" t="s">
+      <c r="Q25" s="21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="2:14" s="5" customFormat="1">
+    <row r="27" spans="2:20" s="5" customFormat="1">
       <c r="B27" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="2:14" s="5" customFormat="1">
+      <c r="G27" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" s="5" customFormat="1">
       <c r="B28" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G28" s="5" t="s">
+      <c r="I28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="L28" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="M28" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="K28" s="5" t="s">
+      <c r="O28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="M28" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="N28" s="5" t="s">
+      <c r="S28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="T28" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:20">
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
         <v>38</v>
       </c>
-      <c r="I29">
-        <v>2</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="D29" s="13"/>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29" t="s">
         <v>56</v>
       </c>
-      <c r="K29" s="13"/>
-    </row>
-    <row r="30" spans="2:14">
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+    </row>
+    <row r="30" spans="2:20">
       <c r="B30">
         <v>3</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="I30" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="J30" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I30">
+      <c r="L30">
         <v>4</v>
       </c>
-      <c r="J30" t="s">
+      <c r="M30" t="s">
         <v>57</v>
       </c>
-      <c r="K30" s="13"/>
-    </row>
-    <row r="31" spans="2:14">
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+    </row>
+    <row r="31" spans="2:20">
       <c r="B31">
         <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="I31" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="J31" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="I31">
+      <c r="L31">
         <v>6</v>
       </c>
-      <c r="J31" t="s">
+      <c r="M31" t="s">
         <v>58</v>
       </c>
-      <c r="K31" s="13"/>
-    </row>
-    <row r="32" spans="2:14">
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+    </row>
+    <row r="32" spans="2:20">
       <c r="B32">
         <v>7</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="I32">
+      <c r="L32">
         <v>8</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="M32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K32" s="13"/>
-    </row>
-    <row r="33" spans="2:14">
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+    </row>
+    <row r="33" spans="2:19">
       <c r="B33">
         <v>9</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="25" t="s">
+      <c r="H33" s="12"/>
+      <c r="I33" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="G33" t="s">
+      <c r="J33" t="s">
         <v>83</v>
       </c>
-      <c r="H33" s="13"/>
-      <c r="I33">
+      <c r="K33" s="13"/>
+      <c r="L33">
         <v>10</v>
       </c>
-      <c r="J33" t="s">
+      <c r="M33" t="s">
         <v>70</v>
       </c>
-      <c r="K33" s="13"/>
-    </row>
-    <row r="34" spans="2:14">
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+    </row>
+    <row r="34" spans="2:19">
       <c r="B34">
         <v>11</v>
       </c>
       <c r="C34" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="25" t="s">
+      <c r="H34" s="8"/>
+      <c r="I34" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="G34" s="31" t="s">
+      <c r="J34" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="H34" s="13"/>
-      <c r="I34">
+      <c r="K34" s="13"/>
+      <c r="L34">
         <v>12</v>
       </c>
-      <c r="J34" t="s">
+      <c r="M34" t="s">
         <v>60</v>
       </c>
-      <c r="K34" s="13"/>
-    </row>
-    <row r="35" spans="2:14">
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+    </row>
+    <row r="35" spans="2:19">
       <c r="B35">
         <v>13</v>
       </c>
       <c r="C35" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35">
+      <c r="K35" s="13"/>
+      <c r="L35">
         <v>14</v>
       </c>
-      <c r="J35" t="s">
+      <c r="M35" t="s">
         <v>61</v>
       </c>
-      <c r="K35" s="13"/>
-    </row>
-    <row r="36" spans="2:14">
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+    </row>
+    <row r="36" spans="2:19">
       <c r="B36">
         <v>15</v>
       </c>
       <c r="C36" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="H36" s="13"/>
-      <c r="I36">
+      <c r="K36" s="13"/>
+      <c r="L36">
         <v>16</v>
       </c>
-      <c r="J36" t="s">
+      <c r="M36" t="s">
         <v>62</v>
       </c>
-      <c r="K36" s="13"/>
-    </row>
-    <row r="37" spans="2:14" ht="14.25" thickBot="1">
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+    </row>
+    <row r="37" spans="2:19" ht="14.25" thickBot="1">
       <c r="B37">
         <v>17</v>
       </c>
       <c r="C37" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="F37" s="25" t="s">
+      <c r="I37" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="G37" t="s">
+      <c r="J37" t="s">
         <v>118</v>
       </c>
-      <c r="H37" s="13"/>
-      <c r="I37">
+      <c r="K37" s="13"/>
+      <c r="L37">
         <v>18</v>
       </c>
-      <c r="J37" t="s">
+      <c r="M37" t="s">
         <v>70</v>
       </c>
-      <c r="K37" s="13"/>
-    </row>
-    <row r="38" spans="2:14" ht="14.25" thickBot="1">
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+    </row>
+    <row r="38" spans="2:19" ht="14.25" thickBot="1">
       <c r="B38">
         <v>19</v>
       </c>
       <c r="C38" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="32"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E38" s="22"/>
-      <c r="F38" s="25" t="s">
+      <c r="H38" s="22"/>
+      <c r="I38" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="G38" t="s">
+      <c r="J38" t="s">
         <v>84</v>
       </c>
-      <c r="H38" s="32"/>
-      <c r="I38">
+      <c r="K38" s="32"/>
+      <c r="L38">
         <v>20</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="M38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K38" s="13"/>
-      <c r="L38" s="29"/>
-      <c r="M38" t="s">
+      <c r="N38" s="29"/>
+      <c r="O38" t="s">
         <v>75</v>
       </c>
-      <c r="N38" t="s">
+      <c r="P38" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="39" spans="2:14">
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+    </row>
+    <row r="39" spans="2:19">
       <c r="B39">
         <v>21</v>
       </c>
       <c r="C39" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="25" t="s">
+      <c r="H39" s="11"/>
+      <c r="I39" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="G39" t="s">
+      <c r="J39" t="s">
         <v>80</v>
       </c>
-      <c r="H39" s="13"/>
-      <c r="I39">
+      <c r="K39" s="13"/>
+      <c r="L39">
         <v>22</v>
       </c>
-      <c r="J39" t="s">
+      <c r="M39" t="s">
         <v>63</v>
       </c>
-      <c r="K39" s="13"/>
-    </row>
-    <row r="40" spans="2:14">
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+    </row>
+    <row r="40" spans="2:19">
       <c r="B40">
         <v>23</v>
       </c>
       <c r="C40" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="25" t="s">
+      <c r="H40" s="10"/>
+      <c r="I40" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="G40" t="s">
+      <c r="J40" t="s">
         <v>81</v>
       </c>
-      <c r="H40" s="13"/>
-      <c r="I40">
+      <c r="K40" s="13"/>
+      <c r="L40">
         <v>24</v>
       </c>
-      <c r="J40" t="s">
+      <c r="M40" t="s">
         <v>66</v>
       </c>
-      <c r="K40" s="13"/>
-    </row>
-    <row r="41" spans="2:14">
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+    </row>
+    <row r="41" spans="2:19">
       <c r="B41">
         <v>25</v>
       </c>
       <c r="C41" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="25" t="s">
+      <c r="H41" s="9"/>
+      <c r="I41" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="G41" t="s">
+      <c r="J41" t="s">
         <v>79</v>
       </c>
-      <c r="H41" s="13"/>
-      <c r="I41">
+      <c r="K41" s="13"/>
+      <c r="L41">
         <v>26</v>
       </c>
-      <c r="J41" t="s">
+      <c r="M41" t="s">
         <v>64</v>
       </c>
-      <c r="K41" s="13"/>
-      <c r="L41" s="7"/>
-      <c r="M41" t="s">
+      <c r="N41" s="7"/>
+      <c r="O41" t="s">
         <v>75</v>
       </c>
-      <c r="N41" t="s">
+      <c r="P41" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="42" spans="2:14">
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+    </row>
+    <row r="42" spans="2:19">
       <c r="B42">
         <v>27</v>
       </c>
       <c r="C42" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="25" t="s">
+      <c r="H42" s="8"/>
+      <c r="I42" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="G42" t="s">
+      <c r="J42" t="s">
         <v>76</v>
       </c>
-      <c r="H42" s="13"/>
-      <c r="I42">
+      <c r="K42" s="13"/>
+      <c r="L42">
         <v>28</v>
       </c>
-      <c r="J42" t="s">
+      <c r="M42" t="s">
         <v>65</v>
       </c>
-      <c r="K42" s="13"/>
-    </row>
-    <row r="43" spans="2:14">
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+    </row>
+    <row r="43" spans="2:19">
       <c r="B43">
         <v>29</v>
       </c>
       <c r="C43" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="25" t="s">
+      <c r="H43" s="7"/>
+      <c r="I43" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="G43" t="s">
+      <c r="J43" t="s">
         <v>77</v>
       </c>
-      <c r="H43" s="13"/>
-      <c r="I43">
+      <c r="K43" s="13"/>
+      <c r="L43">
         <v>30</v>
       </c>
-      <c r="J43" t="s">
+      <c r="M43" t="s">
         <v>67</v>
       </c>
-      <c r="K43" s="13"/>
-      <c r="L43" s="6"/>
-      <c r="M43" t="s">
+      <c r="N43" s="6"/>
+      <c r="O43" t="s">
         <v>75</v>
       </c>
-      <c r="N43" t="s">
+      <c r="P43" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="44" spans="2:14">
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+    </row>
+    <row r="44" spans="2:19">
       <c r="B44">
         <v>31</v>
       </c>
       <c r="C44" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="25" t="s">
+      <c r="H44" s="6"/>
+      <c r="I44" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="G44" t="s">
+      <c r="J44" t="s">
         <v>78</v>
       </c>
-      <c r="H44" s="13"/>
-      <c r="I44">
+      <c r="K44" s="13"/>
+      <c r="L44">
         <v>32</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="M44" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K44" s="13"/>
-    </row>
-    <row r="45" spans="2:14">
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+    </row>
+    <row r="45" spans="2:19">
       <c r="B45">
         <v>33</v>
       </c>
       <c r="C45" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="F45" s="25" t="s">
+      <c r="I45" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="I45">
+      <c r="L45">
         <v>34</v>
       </c>
-      <c r="J45" t="s">
+      <c r="M45" t="s">
         <v>69</v>
       </c>
-      <c r="K45" s="13"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="14" t="s">
+      <c r="N45" s="33"/>
+      <c r="O45" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="N45" t="s">
+      <c r="P45" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="46" spans="2:14">
+      <c r="Q45" s="13"/>
+      <c r="R45" s="32"/>
+      <c r="S45" s="14"/>
+    </row>
+    <row r="46" spans="2:19">
       <c r="B46">
         <v>35</v>
       </c>
       <c r="C46" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="13"/>
+      <c r="G46" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="I46">
+      <c r="L46">
         <v>36</v>
       </c>
-      <c r="J46" t="s">
+      <c r="M46" t="s">
         <v>70</v>
       </c>
-      <c r="K46" s="13"/>
-    </row>
-    <row r="47" spans="2:14">
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" spans="2:19">
       <c r="B47">
         <v>37</v>
       </c>
       <c r="C47" t="s">
         <v>55</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="13"/>
+      <c r="G47" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="I47">
+      <c r="L47">
         <v>38</v>
       </c>
-      <c r="J47" t="s">
+      <c r="M47" t="s">
         <v>70</v>
       </c>
-      <c r="K47" s="13"/>
-    </row>
-    <row r="48" spans="2:14">
-      <c r="D48" s="14"/>
-      <c r="K48" s="13"/>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" spans="2:19">
+      <c r="G48" s="14"/>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" spans="3:17">
       <c r="C49" s="24"/>
       <c r="D49" t="s">
         <v>114</v>
       </c>
-      <c r="K49" s="13"/>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" spans="3:17">
       <c r="C50" s="31"/>
       <c r="D50" t="s">
         <v>142</v>
       </c>
-      <c r="K50" s="13"/>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" spans="3:17">
       <c r="C51" s="25"/>
       <c r="D51" t="s">
         <v>115</v>
       </c>
-      <c r="K51" s="13"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="B54" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" s="5" customFormat="1">
-      <c r="B55" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s">
-        <v>125</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="B57">
-        <v>2</v>
-      </c>
-      <c r="E57" s="12"/>
-      <c r="F57" t="s">
-        <v>125</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="B58" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="5" customFormat="1">
-      <c r="B59" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="E60" s="6"/>
-      <c r="F60" t="s">
-        <v>125</v>
-      </c>
-      <c r="G60" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="B61">
-        <v>2</v>
-      </c>
-      <c r="E61" s="8"/>
-      <c r="F61" t="s">
-        <v>125</v>
-      </c>
-      <c r="G61" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="B62">
-        <v>3</v>
-      </c>
-      <c r="E62" s="7"/>
-      <c r="F62" t="s">
-        <v>125</v>
-      </c>
-      <c r="G62" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="B63">
-        <v>4</v>
-      </c>
-      <c r="E63" s="9"/>
-      <c r="F63" t="s">
-        <v>125</v>
-      </c>
-      <c r="G63" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="B64">
-        <v>5</v>
-      </c>
-      <c r="E64" s="10"/>
-      <c r="F64" t="s">
-        <v>125</v>
-      </c>
-      <c r="G64" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B65">
-        <v>6</v>
-      </c>
-      <c r="E65" s="11"/>
-      <c r="F65" t="s">
-        <v>125</v>
-      </c>
-      <c r="G65" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B66">
-        <v>7</v>
-      </c>
-      <c r="E66" s="26"/>
-      <c r="F66" t="s">
-        <v>125</v>
-      </c>
-      <c r="G66" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7">
-      <c r="B67">
-        <v>8</v>
-      </c>
-      <c r="E67" s="27"/>
-      <c r="F67" t="s">
-        <v>125</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7">
-      <c r="B69" s="28" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" s="5" customFormat="1">
-      <c r="B70" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7">
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="E71" s="6"/>
-      <c r="F71" t="s">
-        <v>134</v>
-      </c>
-      <c r="G71" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7">
-      <c r="B72">
-        <v>2</v>
-      </c>
-      <c r="E72" s="8"/>
-      <c r="F72" t="s">
-        <v>134</v>
-      </c>
-      <c r="G72" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7">
-      <c r="B73">
-        <v>3</v>
-      </c>
-      <c r="E73" s="7"/>
-      <c r="F73" t="s">
-        <v>134</v>
-      </c>
-      <c r="G73" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7">
-      <c r="B74">
-        <v>4</v>
-      </c>
-      <c r="E74" s="9"/>
-      <c r="F74" t="s">
-        <v>134</v>
-      </c>
-      <c r="G74" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7">
-      <c r="B75">
-        <v>5</v>
-      </c>
-      <c r="E75" s="10"/>
-      <c r="F75" t="s">
-        <v>134</v>
-      </c>
-      <c r="G75" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7">
-      <c r="B76">
-        <v>6</v>
-      </c>
-      <c r="E76" t="s">
-        <v>136</v>
-      </c>
-      <c r="F76" t="s">
-        <v>134</v>
-      </c>
-      <c r="G76" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7">
-      <c r="B77">
-        <v>7</v>
-      </c>
-      <c r="E77" s="11"/>
-      <c r="F77" t="s">
-        <v>134</v>
-      </c>
-      <c r="G77" s="13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7">
-      <c r="B78" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" s="5" customFormat="1">
-      <c r="B79" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7">
-      <c r="B80">
-        <v>1</v>
-      </c>
-      <c r="E80" s="29"/>
-      <c r="F80" t="s">
-        <v>134</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="B81">
-        <v>2</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s">
-        <v>134</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="B84" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" s="5" customFormat="1">
-      <c r="B85" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="B86">
-        <v>1</v>
-      </c>
-      <c r="E86" s="6"/>
-      <c r="F86" t="s">
-        <v>139</v>
-      </c>
-      <c r="G86" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="B87">
-        <v>2</v>
-      </c>
-      <c r="E87" s="8"/>
-      <c r="F87" t="s">
-        <v>139</v>
-      </c>
-      <c r="G87" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="B88">
-        <v>3</v>
-      </c>
-      <c r="E88" s="7"/>
-      <c r="F88" t="s">
-        <v>139</v>
-      </c>
-      <c r="G88" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="B89">
-        <v>4</v>
-      </c>
-      <c r="E89" s="9"/>
-      <c r="F89" t="s">
-        <v>139</v>
-      </c>
-      <c r="G89" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="B90">
-        <v>5</v>
-      </c>
-      <c r="E90" s="10"/>
-      <c r="F90" t="s">
-        <v>139</v>
-      </c>
-      <c r="G90" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="B91">
-        <v>6</v>
-      </c>
-      <c r="E91" s="11"/>
-      <c r="F91" t="s">
-        <v>139</v>
-      </c>
-      <c r="G91" s="13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="B92" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" s="5" customFormat="1">
-      <c r="B93" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="B94">
-        <v>1</v>
-      </c>
-      <c r="E94" s="2"/>
-      <c r="F94" t="s">
-        <v>139</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="B95">
-        <v>2</v>
-      </c>
-      <c r="E95" s="29"/>
-      <c r="F95" t="s">
-        <v>139</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="B98" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" s="5" customFormat="1">
-      <c r="B99" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="B100">
-        <v>1</v>
-      </c>
-      <c r="E100" s="6"/>
-      <c r="F100" t="s">
-        <v>144</v>
-      </c>
-      <c r="G100" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="B101">
-        <v>2</v>
-      </c>
-      <c r="E101" s="7"/>
-      <c r="F101" t="s">
-        <v>144</v>
-      </c>
-      <c r="G101" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="B102">
-        <v>3</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" t="s">
-        <v>144</v>
-      </c>
-      <c r="G102" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="B103">
-        <v>4</v>
-      </c>
-      <c r="E103" s="29"/>
-      <c r="F103" t="s">
-        <v>144</v>
-      </c>
-      <c r="G103" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="B104" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B105" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G105" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B106">
-        <v>1</v>
-      </c>
-      <c r="E106" s="15"/>
-      <c r="F106" t="s">
-        <v>151</v>
-      </c>
-      <c r="G106" s="31" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="B107">
-        <v>2</v>
-      </c>
-      <c r="E107" s="12"/>
-      <c r="F107" t="s">
-        <v>151</v>
-      </c>
-      <c r="G107" s="31" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="B108" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" s="5" customFormat="1">
-      <c r="B109" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="B110">
-        <v>1</v>
-      </c>
-      <c r="E110" s="2"/>
-      <c r="F110" t="s">
-        <v>153</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="B111">
-        <v>2</v>
-      </c>
-      <c r="E111" s="12"/>
-      <c r="F111" t="s">
-        <v>153</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="B114" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B115" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B116">
-        <v>1</v>
-      </c>
-      <c r="E116" s="15"/>
-      <c r="F116" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="G116" s="31" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="B117">
-        <v>2</v>
-      </c>
-      <c r="E117" s="12"/>
-      <c r="F117" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="G117" s="31" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="B118" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" s="5" customFormat="1">
-      <c r="B119" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G119" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="B120">
-        <v>1</v>
-      </c>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="G120" s="13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="B121">
-        <v>2</v>
-      </c>
-      <c r="E121" s="13"/>
-      <c r="F121" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="G121" s="32" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="B122" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" s="5" customFormat="1">
-      <c r="B123" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="B124">
-        <v>1</v>
-      </c>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="G124" s="13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="B125">
-        <v>2</v>
-      </c>
-      <c r="E125" s="13"/>
-      <c r="F125" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="G125" s="32" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="B126" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" s="5" customFormat="1">
-      <c r="B127" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G127" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="B128">
-        <v>1</v>
-      </c>
-      <c r="E128" s="2"/>
-      <c r="F128" t="s">
-        <v>178</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B129">
-        <v>2</v>
-      </c>
-      <c r="E129" s="12"/>
-      <c r="F129" t="s">
-        <v>178</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B130">
-        <v>3</v>
-      </c>
-      <c r="E130" s="26"/>
-      <c r="F130" t="s">
-        <v>178</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="B133" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B134" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G134" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B135" s="34">
-        <v>1</v>
-      </c>
-      <c r="E135" s="35"/>
-      <c r="F135" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="G135" s="39" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="B136">
-        <v>2</v>
-      </c>
-      <c r="E136" s="12"/>
-      <c r="F136" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="G136" s="31" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="B137" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" s="5" customFormat="1">
-      <c r="B138" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F138" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G138" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" s="5" customFormat="1">
-      <c r="B139" s="34">
-        <v>1</v>
-      </c>
-      <c r="E139" s="37"/>
-      <c r="F139" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="G139" s="39" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="B140">
-        <v>2</v>
-      </c>
-      <c r="F140" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="G140" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="B141" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B142" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F142" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G142" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B143" s="34">
-        <v>1</v>
-      </c>
-      <c r="E143" s="38"/>
-      <c r="F143" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="G143" s="39" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="B144">
-        <v>2</v>
-      </c>
-      <c r="E144" s="12"/>
-      <c r="F144" t="s">
-        <v>162</v>
-      </c>
-      <c r="G144" s="31" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="145" spans="2:7">
-      <c r="B145" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="146" spans="2:7" s="5" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B146" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F146" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G146" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="2:7" s="5" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B147" s="34">
-        <v>1</v>
-      </c>
-      <c r="E147" s="42"/>
-      <c r="F147" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="G147" s="39" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="148" spans="2:7">
-      <c r="B148">
-        <v>2</v>
-      </c>
-      <c r="E148" s="12"/>
-      <c r="F148" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="G148" s="31" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="149" spans="2:7">
-      <c r="B149" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="150" spans="2:7" s="5" customFormat="1">
-      <c r="B150" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F150" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G150" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151" spans="2:7" s="5" customFormat="1">
-      <c r="B151" s="34">
-        <v>1</v>
-      </c>
-      <c r="E151" s="41"/>
-      <c r="F151" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="G151" s="39" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="152" spans="2:7">
-      <c r="B152">
-        <v>2</v>
-      </c>
-      <c r="E152" s="12"/>
-      <c r="F152" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="G152" s="31" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="153" spans="2:7">
-      <c r="B153" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="154" spans="2:7" s="5" customFormat="1">
-      <c r="B154" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F154" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G154" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="2:7" s="5" customFormat="1">
-      <c r="B155" s="34">
-        <v>1</v>
-      </c>
-      <c r="E155" s="40"/>
-      <c r="F155" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="G155" s="39" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="156" spans="2:7">
-      <c r="B156">
-        <v>2</v>
-      </c>
-      <c r="E156" s="12"/>
-      <c r="F156" t="s">
-        <v>162</v>
-      </c>
-      <c r="G156" s="31" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="157" spans="2:7">
-      <c r="B157" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="158" spans="2:7" s="5" customFormat="1">
-      <c r="B158" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F158" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G158" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="2:7">
-      <c r="B159">
-        <v>1</v>
-      </c>
-      <c r="E159" s="2"/>
-      <c r="F159" t="s">
-        <v>178</v>
-      </c>
-      <c r="G159" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="160" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B160">
-        <v>2</v>
-      </c>
-      <c r="E160" s="12"/>
-      <c r="F160" t="s">
-        <v>178</v>
-      </c>
-      <c r="G160" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="161" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B161">
-        <v>3</v>
-      </c>
-      <c r="E161" s="26"/>
-      <c r="F161" t="s">
-        <v>178</v>
-      </c>
-      <c r="G161" s="3" t="s">
-        <v>181</v>
-      </c>
+      <c r="Q51" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="74" fitToHeight="2" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;F&amp;CPage &amp;P&amp;R&amp;D</oddFooter>
   </headerFooter>
@@ -3426,19 +2744,1090 @@
     <brk id="51" max="16383" man="1"/>
     <brk id="52" max="16383" man="1"/>
   </rowBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1">
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="5" customFormat="1">
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" thickBot="1">
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" thickBot="1">
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="E15" s="27"/>
+      <c r="F15" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="B17" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="5" customFormat="1">
+      <c r="B18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="5" customFormat="1">
+      <c r="B27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="29"/>
+      <c r="F28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="5" customFormat="1">
+      <c r="B33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" t="s">
+        <v>139</v>
+      </c>
+      <c r="G34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" t="s">
+        <v>139</v>
+      </c>
+      <c r="G35" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" t="s">
+        <v>139</v>
+      </c>
+      <c r="G36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" t="s">
+        <v>139</v>
+      </c>
+      <c r="G38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="B40" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="5" customFormat="1">
+      <c r="B41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s">
+        <v>139</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="E43" s="29"/>
+      <c r="F43" t="s">
+        <v>139</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="B46" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="5" customFormat="1">
+      <c r="B47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" t="s">
+        <v>144</v>
+      </c>
+      <c r="G48" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" t="s">
+        <v>144</v>
+      </c>
+      <c r="G49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s">
+        <v>144</v>
+      </c>
+      <c r="G50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="E51" s="29"/>
+      <c r="F51" t="s">
+        <v>144</v>
+      </c>
+      <c r="G51" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="B52" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="14.25" thickBot="1">
+      <c r="B53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="14.25" thickBot="1">
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="E54" s="15"/>
+      <c r="F54" t="s">
+        <v>151</v>
+      </c>
+      <c r="G54" s="31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" t="s">
+        <v>151</v>
+      </c>
+      <c r="G55" s="31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="B56" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="5" customFormat="1">
+      <c r="B57" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s">
+        <v>153</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="E59" s="12"/>
+      <c r="F59" t="s">
+        <v>153</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="B62" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B63" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="14.25" thickBot="1">
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="E64" s="15"/>
+      <c r="F64" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="G64" s="31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="E65" s="12"/>
+      <c r="F65" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="G65" s="31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="B66" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="5" customFormat="1">
+      <c r="B67" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="E69" s="13"/>
+      <c r="F69" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="G69" s="32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="B70" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="5" customFormat="1">
+      <c r="B71" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G73" s="32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="B74" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="5" customFormat="1">
+      <c r="B75" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s">
+        <v>178</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="14.25" thickBot="1">
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="E77" s="12"/>
+      <c r="F77" t="s">
+        <v>178</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="14.25" thickBot="1">
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="E78" s="26"/>
+      <c r="F78" t="s">
+        <v>178</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" s="5" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B82" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" s="5" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B83" s="34">
+        <v>1</v>
+      </c>
+      <c r="E83" s="35"/>
+      <c r="F83" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="G83" s="39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="E84" s="12"/>
+      <c r="F84" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="G84" s="31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" s="5" customFormat="1">
+      <c r="B86" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" s="5" customFormat="1">
+      <c r="B87" s="34">
+        <v>1</v>
+      </c>
+      <c r="E87" s="37"/>
+      <c r="F87" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="G87" s="39" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="F88" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="G88" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" s="5" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B90" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" s="5" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B91" s="34">
+        <v>1</v>
+      </c>
+      <c r="E91" s="38"/>
+      <c r="F91" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="G91" s="39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="E92" s="12"/>
+      <c r="F92" t="s">
+        <v>162</v>
+      </c>
+      <c r="G92" s="31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="B93" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" s="5" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B94" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" s="5" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B95" s="34">
+        <v>1</v>
+      </c>
+      <c r="E95" s="42"/>
+      <c r="F95" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="G95" s="39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="E96" s="12"/>
+      <c r="F96" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="G96" s="31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" s="5" customFormat="1">
+      <c r="B98" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" s="5" customFormat="1">
+      <c r="B99" s="34">
+        <v>1</v>
+      </c>
+      <c r="E99" s="41"/>
+      <c r="F99" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="G99" s="39" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="E100" s="12"/>
+      <c r="F100" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="G100" s="31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" s="5" customFormat="1">
+      <c r="B102" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" s="5" customFormat="1">
+      <c r="B103" s="34">
+        <v>1</v>
+      </c>
+      <c r="E103" s="40"/>
+      <c r="F103" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="G103" s="39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7">
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="E104" s="12"/>
+      <c r="F104" t="s">
+        <v>162</v>
+      </c>
+      <c r="G104" s="31" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7">
+      <c r="B105" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" s="5" customFormat="1">
+      <c r="B106" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7">
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s">
+        <v>178</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" ht="14.25" thickBot="1">
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="E108" s="12"/>
+      <c r="F108" t="s">
+        <v>178</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" ht="14.25" thickBot="1">
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="E109" s="26"/>
+      <c r="F109" t="s">
+        <v>178</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;F&amp;C&amp;P&amp;R&amp;D</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 

--- a/KIK01接続一覧表.xlsx
+++ b/KIK01接続一覧表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="22035" windowHeight="11445" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="22035" windowHeight="11445"/>
   </bookViews>
   <sheets>
     <sheet name="Nucleo" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="198">
   <si>
     <t>KIK01接続一覧表</t>
     <rPh sb="5" eb="7">
@@ -753,15 +753,55 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2017.12.05</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CN6/CN8</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>CN5/CN9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sync</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SyncGND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PWR_MON</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LEDs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LEDs_GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LEDs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LEDs_PWR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LEDs_Beat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LEDs_SyncIn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LEDs_SyncOut</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017.12.12</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -895,7 +935,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -968,13 +1008,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1102,6 +1151,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1618,8 +1670,8 @@
   </sheetPr>
   <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1634,7 +1686,8 @@
     <col min="11" max="11" width="3" customWidth="1"/>
     <col min="12" max="12" width="5.75" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3.125" customWidth="1"/>
-    <col min="15" max="16" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.625" customWidth="1"/>
     <col min="18" max="18" width="3.125" customWidth="1"/>
     <col min="19" max="20" width="10.375" bestFit="1" customWidth="1"/>
@@ -1647,7 +1700,7 @@
     </row>
     <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:24" s="5" customFormat="1">
@@ -1660,7 +1713,7 @@
         <v>5</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:24" s="5" customFormat="1">
@@ -1910,6 +1963,12 @@
       <c r="C16" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="E16" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" t="s">
+        <v>188</v>
+      </c>
       <c r="G16" s="13"/>
       <c r="L16">
         <v>20</v>
@@ -1980,7 +2039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:20">
+    <row r="19" spans="2:20" ht="14.25" thickBot="1">
       <c r="B19">
         <v>25</v>
       </c>
@@ -2001,7 +2060,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="2:20">
+    <row r="20" spans="2:20" ht="14.25" thickBot="1">
       <c r="B20">
         <v>27</v>
       </c>
@@ -2018,8 +2077,12 @@
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
       <c r="P20" s="13"/>
-      <c r="Q20" s="20" t="s">
+      <c r="Q20" s="43" t="s">
         <v>92</v>
+      </c>
+      <c r="R20" s="26"/>
+      <c r="S20" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="2:20">
@@ -2128,7 +2191,7 @@
         <v>37</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="2:20" s="5" customFormat="1">
@@ -2245,6 +2308,13 @@
       <c r="M31" t="s">
         <v>58</v>
       </c>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s">
+        <v>192</v>
+      </c>
+      <c r="P31" t="s">
+        <v>193</v>
+      </c>
       <c r="Q31" s="13"/>
       <c r="R31" s="13"/>
     </row>
@@ -2327,6 +2397,13 @@
       <c r="M34" t="s">
         <v>60</v>
       </c>
+      <c r="N34" s="7"/>
+      <c r="O34" t="s">
+        <v>192</v>
+      </c>
+      <c r="P34" t="s">
+        <v>194</v>
+      </c>
       <c r="Q34" s="13"/>
       <c r="R34" s="13"/>
     </row>
@@ -2350,6 +2427,13 @@
       <c r="M35" t="s">
         <v>61</v>
       </c>
+      <c r="N35" s="6"/>
+      <c r="O35" t="s">
+        <v>192</v>
+      </c>
+      <c r="P35" t="s">
+        <v>195</v>
+      </c>
       <c r="Q35" s="13"/>
       <c r="R35" s="13"/>
     </row>
@@ -2373,6 +2457,13 @@
       <c r="M36" t="s">
         <v>62</v>
       </c>
+      <c r="N36" s="8"/>
+      <c r="O36" t="s">
+        <v>192</v>
+      </c>
+      <c r="P36" t="s">
+        <v>196</v>
+      </c>
       <c r="Q36" s="13"/>
       <c r="R36" s="13"/>
     </row>
@@ -2434,10 +2525,10 @@
       </c>
       <c r="N38" s="29"/>
       <c r="O38" t="s">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="P38" t="s">
-        <v>86</v>
+        <v>191</v>
       </c>
       <c r="Q38" s="13"/>
       <c r="R38" s="13"/>
@@ -2632,6 +2723,13 @@
       </c>
       <c r="M44" s="3" t="s">
         <v>68</v>
+      </c>
+      <c r="N44" s="29"/>
+      <c r="O44" t="s">
+        <v>75</v>
+      </c>
+      <c r="P44" t="s">
+        <v>86</v>
       </c>
       <c r="Q44" s="13"/>
       <c r="R44" s="13"/>
@@ -2752,7 +2850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>

--- a/KIK01接続一覧表.xlsx
+++ b/KIK01接続一覧表.xlsx
@@ -486,10 +486,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SyncOut</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>POTx8 LunchBox</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -801,7 +797,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2017.12.12</t>
+    <t>(SPI2_MISO)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017.12.18</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -843,7 +843,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -934,8 +934,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -996,19 +1002,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1090,9 +1083,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1153,7 +1143,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1678,7 +1671,7 @@
   <cols>
     <col min="1" max="1" width="2.25" customWidth="1"/>
     <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.625" customWidth="1"/>
+    <col min="4" max="4" width="3.125" customWidth="1"/>
     <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.625" customWidth="1"/>
@@ -1713,7 +1706,7 @@
         <v>5</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:24" s="5" customFormat="1">
@@ -1769,10 +1762,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" t="s">
         <v>182</v>
-      </c>
-      <c r="F7" t="s">
-        <v>183</v>
       </c>
       <c r="L7">
         <v>2</v>
@@ -1781,10 +1774,10 @@
         <v>23</v>
       </c>
       <c r="O7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -1918,17 +1911,14 @@
       <c r="M14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="30"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="Q14" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="R14" s="2"/>
-      <c r="S14" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="T14" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1948,13 +1938,13 @@
       </c>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
-      <c r="P15" s="30"/>
+      <c r="P15" s="29"/>
       <c r="Q15" s="18" t="s">
         <v>29</v>
       </c>
       <c r="R15" s="13"/>
       <c r="S15" s="13"/>
-      <c r="T15" s="30"/>
+      <c r="T15" s="29"/>
     </row>
     <row r="16" spans="1:24">
       <c r="B16">
@@ -1964,10 +1954,10 @@
         <v>13</v>
       </c>
       <c r="E16" t="s">
+        <v>186</v>
+      </c>
+      <c r="F16" t="s">
         <v>187</v>
-      </c>
-      <c r="F16" t="s">
-        <v>188</v>
       </c>
       <c r="G16" s="13"/>
       <c r="L16">
@@ -1976,17 +1966,14 @@
       <c r="M16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="P16" t="s">
+        <v>13</v>
+      </c>
       <c r="Q16" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="R16" s="12"/>
-      <c r="S16" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="T16" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2011,11 +1998,11 @@
         <v>13</v>
       </c>
       <c r="R17" s="12"/>
-      <c r="S17" s="25" t="s">
+      <c r="S17" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="T17" s="30" t="s">
         <v>140</v>
-      </c>
-      <c r="T17" s="31" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="18" spans="2:20">
@@ -2077,12 +2064,12 @@
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
       <c r="P20" s="13"/>
-      <c r="Q20" s="43" t="s">
+      <c r="Q20" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="R20" s="26"/>
+      <c r="R20" s="25"/>
       <c r="S20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="2:20">
@@ -2127,10 +2114,10 @@
         <v>94</v>
       </c>
       <c r="R22" s="6"/>
-      <c r="S22" s="25" t="s">
+      <c r="S22" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="T22" s="31" t="s">
+      <c r="T22" s="30" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2191,7 +2178,7 @@
         <v>37</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="2:20" s="5" customFormat="1">
@@ -2268,7 +2255,7 @@
       <c r="G30" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="I30" s="25" t="s">
+      <c r="I30" s="24" t="s">
         <v>116</v>
       </c>
       <c r="J30" s="13" t="s">
@@ -2296,7 +2283,7 @@
       <c r="G31" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="I31" s="25" t="s">
+      <c r="I31" s="24" t="s">
         <v>116</v>
       </c>
       <c r="J31" s="13" t="s">
@@ -2307,13 +2294,6 @@
       </c>
       <c r="M31" t="s">
         <v>58</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s">
-        <v>192</v>
-      </c>
-      <c r="P31" t="s">
-        <v>193</v>
       </c>
       <c r="Q31" s="13"/>
       <c r="R31" s="13"/>
@@ -2347,18 +2327,15 @@
       <c r="C33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" t="s">
+        <v>83</v>
+      </c>
       <c r="G33" s="17" t="s">
         <v>13</v>
-      </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="J33" t="s">
-        <v>83</v>
       </c>
       <c r="K33" s="13"/>
       <c r="L33">
@@ -2384,10 +2361,10 @@
         <v>100</v>
       </c>
       <c r="H34" s="8"/>
-      <c r="I34" s="25" t="s">
+      <c r="I34" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="J34" s="31" t="s">
+      <c r="J34" s="30" t="s">
         <v>88</v>
       </c>
       <c r="K34" s="13"/>
@@ -2397,12 +2374,12 @@
       <c r="M34" t="s">
         <v>60</v>
       </c>
-      <c r="N34" s="7"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q34" s="13"/>
       <c r="R34" s="13"/>
@@ -2429,10 +2406,10 @@
       </c>
       <c r="N35" s="6"/>
       <c r="O35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q35" s="13"/>
       <c r="R35" s="13"/>
@@ -2457,12 +2434,12 @@
       <c r="M36" t="s">
         <v>62</v>
       </c>
-      <c r="N36" s="8"/>
+      <c r="N36" s="7"/>
       <c r="O36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q36" s="13"/>
       <c r="R36" s="13"/>
@@ -2480,7 +2457,7 @@
       <c r="G37" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="I37" s="25" t="s">
+      <c r="I37" s="24" t="s">
         <v>116</v>
       </c>
       <c r="J37" t="s">
@@ -2503,32 +2480,29 @@
       <c r="C38" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" t="s">
+        <v>84</v>
+      </c>
       <c r="G38" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="H38" s="22"/>
-      <c r="I38" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="J38" t="s">
-        <v>84</v>
-      </c>
-      <c r="K38" s="32"/>
+      <c r="K38" s="31"/>
       <c r="L38">
         <v>20</v>
       </c>
       <c r="M38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N38" s="29"/>
+      <c r="N38" s="28"/>
       <c r="O38" t="s">
+        <v>189</v>
+      </c>
+      <c r="P38" t="s">
         <v>190</v>
-      </c>
-      <c r="P38" t="s">
-        <v>191</v>
       </c>
       <c r="Q38" s="13"/>
       <c r="R38" s="13"/>
@@ -2540,18 +2514,15 @@
       <c r="C39" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" t="s">
+        <v>80</v>
+      </c>
       <c r="G39" s="19" t="s">
         <v>105</v>
-      </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="J39" t="s">
-        <v>80</v>
       </c>
       <c r="K39" s="13"/>
       <c r="L39">
@@ -2560,6 +2531,13 @@
       <c r="M39" t="s">
         <v>63</v>
       </c>
+      <c r="N39" s="8"/>
+      <c r="O39" t="s">
+        <v>191</v>
+      </c>
+      <c r="P39" t="s">
+        <v>192</v>
+      </c>
       <c r="Q39" s="13"/>
       <c r="R39" s="13"/>
     </row>
@@ -2570,18 +2548,15 @@
       <c r="C40" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" t="s">
+        <v>81</v>
+      </c>
       <c r="G40" s="19" t="s">
         <v>106</v>
-      </c>
-      <c r="H40" s="10"/>
-      <c r="I40" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="J40" t="s">
-        <v>81</v>
       </c>
       <c r="K40" s="13"/>
       <c r="L40">
@@ -2600,18 +2575,15 @@
       <c r="C41" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41" t="s">
+        <v>79</v>
+      </c>
       <c r="G41" s="19" t="s">
         <v>107</v>
-      </c>
-      <c r="H41" s="9"/>
-      <c r="I41" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="J41" t="s">
-        <v>79</v>
       </c>
       <c r="K41" s="13"/>
       <c r="L41">
@@ -2637,18 +2609,15 @@
       <c r="C42" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
+        <v>76</v>
+      </c>
       <c r="G42" s="19" t="s">
         <v>108</v>
-      </c>
-      <c r="H42" s="8"/>
-      <c r="I42" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="J42" t="s">
-        <v>76</v>
       </c>
       <c r="K42" s="13"/>
       <c r="L42">
@@ -2657,6 +2626,9 @@
       <c r="M42" t="s">
         <v>65</v>
       </c>
+      <c r="P42" t="s">
+        <v>196</v>
+      </c>
       <c r="Q42" s="13"/>
       <c r="R42" s="13"/>
     </row>
@@ -2667,18 +2639,15 @@
       <c r="C43" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
+        <v>77</v>
+      </c>
       <c r="G43" s="19" t="s">
         <v>109</v>
-      </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="J43" t="s">
-        <v>77</v>
       </c>
       <c r="K43" s="13"/>
       <c r="L43">
@@ -2704,18 +2673,15 @@
       <c r="C44" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" t="s">
+        <v>78</v>
+      </c>
       <c r="G44" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="H44" s="6"/>
-      <c r="I44" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="J44" t="s">
-        <v>78</v>
       </c>
       <c r="K44" s="13"/>
       <c r="L44">
@@ -2724,7 +2690,7 @@
       <c r="M44" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="N44" s="29"/>
+      <c r="N44" s="28"/>
       <c r="O44" t="s">
         <v>75</v>
       </c>
@@ -2747,16 +2713,14 @@
       <c r="G45" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="I45" s="25" t="s">
-        <v>119</v>
-      </c>
+      <c r="I45" s="13"/>
       <c r="L45">
         <v>34</v>
       </c>
       <c r="M45" t="s">
         <v>69</v>
       </c>
-      <c r="N45" s="33"/>
+      <c r="N45" s="32"/>
       <c r="O45" s="14" t="s">
         <v>75</v>
       </c>
@@ -2764,7 +2728,7 @@
         <v>74</v>
       </c>
       <c r="Q45" s="13"/>
-      <c r="R45" s="32"/>
+      <c r="R45" s="31"/>
       <c r="S45" s="14"/>
     </row>
     <row r="46" spans="2:19">
@@ -2794,7 +2758,7 @@
         <v>55</v>
       </c>
       <c r="D47" s="13"/>
-      <c r="G47" s="23" t="s">
+      <c r="G47" s="22" t="s">
         <v>113</v>
       </c>
       <c r="L47">
@@ -2810,21 +2774,21 @@
       <c r="Q48" s="13"/>
     </row>
     <row r="49" spans="3:17">
-      <c r="C49" s="24"/>
+      <c r="C49" s="23"/>
       <c r="D49" t="s">
         <v>114</v>
       </c>
       <c r="Q49" s="13"/>
     </row>
     <row r="50" spans="3:17">
-      <c r="C50" s="31"/>
+      <c r="C50" s="30"/>
       <c r="D50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q50" s="13"/>
     </row>
     <row r="51" spans="3:17">
-      <c r="C51" s="25"/>
+      <c r="C51" s="24"/>
       <c r="D51" t="s">
         <v>115</v>
       </c>
@@ -2850,20 +2814,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1">
@@ -2883,27 +2850,27 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="43"/>
       <c r="F5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1">
@@ -2923,10 +2890,10 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" t="s">
         <v>125</v>
-      </c>
-      <c r="G8" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2935,10 +2902,10 @@
       </c>
       <c r="E9" s="8"/>
       <c r="F9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2947,10 +2914,10 @@
       </c>
       <c r="E10" s="7"/>
       <c r="F10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2959,10 +2926,10 @@
       </c>
       <c r="E11" s="9"/>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2971,10 +2938,10 @@
       </c>
       <c r="E12" s="10"/>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" thickBot="1">
@@ -2983,39 +2950,39 @@
       </c>
       <c r="E13" s="11"/>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" thickBot="1">
       <c r="B14">
         <v>7</v>
       </c>
-      <c r="E14" s="26"/>
+      <c r="E14" s="25"/>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="B15">
         <v>8</v>
       </c>
-      <c r="E15" s="27"/>
+      <c r="E15" s="26"/>
       <c r="F15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="B17" s="28" t="s">
-        <v>133</v>
+      <c r="B17" s="27" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1">
@@ -3035,10 +3002,10 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3047,10 +3014,10 @@
       </c>
       <c r="E20" s="8"/>
       <c r="F20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3059,10 +3026,10 @@
       </c>
       <c r="E21" s="7"/>
       <c r="F21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3071,10 +3038,10 @@
       </c>
       <c r="E22" s="9"/>
       <c r="F22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3083,10 +3050,10 @@
       </c>
       <c r="E23" s="10"/>
       <c r="F23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3094,13 +3061,13 @@
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F24" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" t="s">
         <v>134</v>
-      </c>
-      <c r="G24" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3109,15 +3076,15 @@
       </c>
       <c r="E25" s="11"/>
       <c r="F25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="B26" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="5" customFormat="1">
@@ -3135,12 +3102,12 @@
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="E28" s="29"/>
+      <c r="E28" s="28"/>
       <c r="F28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3149,20 +3116,20 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="B32" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="5" customFormat="1">
@@ -3182,10 +3149,10 @@
       </c>
       <c r="E34" s="6"/>
       <c r="F34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3194,10 +3161,10 @@
       </c>
       <c r="E35" s="8"/>
       <c r="F35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3206,10 +3173,10 @@
       </c>
       <c r="E36" s="7"/>
       <c r="F36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3218,10 +3185,10 @@
       </c>
       <c r="E37" s="9"/>
       <c r="F37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3230,10 +3197,10 @@
       </c>
       <c r="E38" s="10"/>
       <c r="F38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3242,15 +3209,15 @@
       </c>
       <c r="E39" s="11"/>
       <c r="F39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="B40" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="5" customFormat="1">
@@ -3270,32 +3237,32 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="B43">
         <v>2</v>
       </c>
-      <c r="E43" s="29"/>
+      <c r="E43" s="28"/>
       <c r="F43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="B46" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="5" customFormat="1">
@@ -3315,10 +3282,10 @@
       </c>
       <c r="E48" s="6"/>
       <c r="F48" t="s">
+        <v>143</v>
+      </c>
+      <c r="G48" t="s">
         <v>144</v>
-      </c>
-      <c r="G48" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3327,10 +3294,10 @@
       </c>
       <c r="E49" s="7"/>
       <c r="F49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3339,27 +3306,27 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="B51">
         <v>4</v>
       </c>
-      <c r="E51" s="29"/>
+      <c r="E51" s="28"/>
       <c r="F51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="B52" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="14.25" thickBot="1">
@@ -3382,10 +3349,10 @@
       </c>
       <c r="E54" s="15"/>
       <c r="F54" t="s">
-        <v>151</v>
-      </c>
-      <c r="G54" s="31" t="s">
         <v>150</v>
+      </c>
+      <c r="G54" s="30" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3394,10 +3361,10 @@
       </c>
       <c r="E55" s="12"/>
       <c r="F55" t="s">
+        <v>150</v>
+      </c>
+      <c r="G55" s="30" t="s">
         <v>151</v>
-      </c>
-      <c r="G55" s="31" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3422,10 +3389,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s">
+        <v>152</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3434,10 +3401,10 @@
       </c>
       <c r="E59" s="12"/>
       <c r="F59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3447,12 +3414,12 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="B62" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1">
@@ -3472,10 +3439,10 @@
       </c>
       <c r="E64" s="15"/>
       <c r="F64" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="G64" s="31" t="s">
         <v>150</v>
+      </c>
+      <c r="G64" s="30" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3484,15 +3451,15 @@
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G65" s="30" t="s">
         <v>151</v>
-      </c>
-      <c r="G65" s="31" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="B66" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="5" customFormat="1">
@@ -3512,10 +3479,10 @@
       </c>
       <c r="E68" s="13"/>
       <c r="F68" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3523,16 +3490,16 @@
         <v>2</v>
       </c>
       <c r="E69" s="13"/>
-      <c r="F69" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="G69" s="32" t="s">
-        <v>161</v>
+      <c r="F69" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="G69" s="31" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="B70" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="5" customFormat="1">
@@ -3552,10 +3519,10 @@
       </c>
       <c r="E72" s="13"/>
       <c r="F72" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3564,10 +3531,10 @@
       </c>
       <c r="E73" s="13"/>
       <c r="F73" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="G73" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+      <c r="G73" s="31" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3592,10 +3559,10 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="14.25" thickBot="1">
@@ -3604,32 +3571,32 @@
       </c>
       <c r="E77" s="12"/>
       <c r="F77" t="s">
+        <v>177</v>
+      </c>
+      <c r="G77" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="14.25" thickBot="1">
       <c r="B78">
         <v>3</v>
       </c>
-      <c r="E78" s="26"/>
+      <c r="E78" s="25"/>
       <c r="F78" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="2:7">
       <c r="B81" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="2:7" s="5" customFormat="1" ht="14.25" thickBot="1">
@@ -3644,15 +3611,15 @@
       </c>
     </row>
     <row r="83" spans="2:7" s="5" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B83" s="34">
+      <c r="B83" s="33">
         <v>1</v>
       </c>
-      <c r="E83" s="35"/>
-      <c r="F83" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="G83" s="39" t="s">
-        <v>150</v>
+      <c r="E83" s="34"/>
+      <c r="F83" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="G83" s="38" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="84" spans="2:7">
@@ -3660,16 +3627,16 @@
         <v>2</v>
       </c>
       <c r="E84" s="12"/>
-      <c r="F84" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="G84" s="31" t="s">
-        <v>152</v>
+      <c r="F84" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="G84" s="30" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="85" spans="2:7">
       <c r="B85" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="2:7" s="5" customFormat="1">
@@ -3684,31 +3651,31 @@
       </c>
     </row>
     <row r="87" spans="2:7" s="5" customFormat="1">
-      <c r="B87" s="34">
+      <c r="B87" s="33">
         <v>1</v>
       </c>
-      <c r="E87" s="37"/>
-      <c r="F87" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="G87" s="39" t="s">
-        <v>165</v>
+      <c r="E87" s="36"/>
+      <c r="F87" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="G87" s="38" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="2:7">
       <c r="B88">
         <v>2</v>
       </c>
-      <c r="F88" s="36" t="s">
-        <v>161</v>
+      <c r="F88" s="35" t="s">
+        <v>160</v>
       </c>
       <c r="G88" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89" spans="2:7">
       <c r="B89" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" spans="2:7" s="5" customFormat="1" ht="14.25" thickBot="1">
@@ -3723,15 +3690,15 @@
       </c>
     </row>
     <row r="91" spans="2:7" s="5" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B91" s="34">
+      <c r="B91" s="33">
         <v>1</v>
       </c>
-      <c r="E91" s="38"/>
-      <c r="F91" s="34" t="s">
+      <c r="E91" s="37"/>
+      <c r="F91" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="G91" s="38" t="s">
         <v>162</v>
-      </c>
-      <c r="G91" s="39" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="92" spans="2:7">
@@ -3740,15 +3707,15 @@
       </c>
       <c r="E92" s="12"/>
       <c r="F92" t="s">
-        <v>162</v>
-      </c>
-      <c r="G92" s="31" t="s">
-        <v>164</v>
+        <v>161</v>
+      </c>
+      <c r="G92" s="30" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="93" spans="2:7">
       <c r="B93" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="94" spans="2:7" s="5" customFormat="1" ht="14.25" thickBot="1">
@@ -3763,15 +3730,15 @@
       </c>
     </row>
     <row r="95" spans="2:7" s="5" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B95" s="34">
+      <c r="B95" s="33">
         <v>1</v>
       </c>
-      <c r="E95" s="42"/>
-      <c r="F95" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="G95" s="39" t="s">
-        <v>150</v>
+      <c r="E95" s="41"/>
+      <c r="F95" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="G95" s="38" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="96" spans="2:7">
@@ -3779,16 +3746,16 @@
         <v>2</v>
       </c>
       <c r="E96" s="12"/>
-      <c r="F96" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="G96" s="31" t="s">
-        <v>152</v>
+      <c r="F96" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="G96" s="30" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="97" spans="2:7">
       <c r="B97" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="98" spans="2:7" s="5" customFormat="1">
@@ -3803,15 +3770,15 @@
       </c>
     </row>
     <row r="99" spans="2:7" s="5" customFormat="1">
-      <c r="B99" s="34">
+      <c r="B99" s="33">
         <v>1</v>
       </c>
-      <c r="E99" s="41"/>
-      <c r="F99" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="G99" s="39" t="s">
-        <v>170</v>
+      <c r="E99" s="40"/>
+      <c r="F99" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="G99" s="38" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="100" spans="2:7">
@@ -3819,16 +3786,16 @@
         <v>2</v>
       </c>
       <c r="E100" s="12"/>
-      <c r="F100" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="G100" s="31" t="s">
-        <v>171</v>
+      <c r="F100" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="G100" s="30" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="101" spans="2:7">
       <c r="B101" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="102" spans="2:7" s="5" customFormat="1">
@@ -3843,15 +3810,15 @@
       </c>
     </row>
     <row r="103" spans="2:7" s="5" customFormat="1">
-      <c r="B103" s="34">
+      <c r="B103" s="33">
         <v>1</v>
       </c>
-      <c r="E103" s="40"/>
-      <c r="F103" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="G103" s="39" t="s">
-        <v>172</v>
+      <c r="E103" s="39"/>
+      <c r="F103" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="G103" s="38" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="104" spans="2:7">
@@ -3860,10 +3827,10 @@
       </c>
       <c r="E104" s="12"/>
       <c r="F104" t="s">
-        <v>162</v>
-      </c>
-      <c r="G104" s="31" t="s">
-        <v>173</v>
+        <v>161</v>
+      </c>
+      <c r="G104" s="30" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="105" spans="2:7">
@@ -3888,10 +3855,10 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="108" spans="2:7" ht="14.25" thickBot="1">
@@ -3900,22 +3867,22 @@
       </c>
       <c r="E108" s="12"/>
       <c r="F108" t="s">
+        <v>177</v>
+      </c>
+      <c r="G108" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="109" spans="2:7" ht="14.25" thickBot="1">
       <c r="B109">
         <v>3</v>
       </c>
-      <c r="E109" s="26"/>
+      <c r="E109" s="25"/>
       <c r="F109" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/KIK01接続一覧表.xlsx
+++ b/KIK01接続一覧表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="213">
   <si>
     <t>KIK01接続一覧表</t>
     <rPh sb="5" eb="7">
@@ -570,10 +570,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ENV_GND</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アナログ信号</t>
     <rPh sb="4" eb="6">
       <t>シンゴウ</t>
@@ -741,67 +737,131 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>CN6/CN8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CN5/CN9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sync</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PWR_MON</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LEDs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LEDs_GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LEDs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LEDs_PWR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LEDs_Beat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LEDs_SyncIn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LEDs_SyncOut</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(SPI2_MISO)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V_Monitor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PWR_MON</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>SyncOut</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>(SyncIn2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SyncIn1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Check3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LEDs_AutoRunSW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LEDs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LEDIN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Beat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>SyncIn</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CN6/CN8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CN5/CN9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sync</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SyncGND</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PWR_MON</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LEDs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LEDs_GND</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LEDs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LEDs_PWR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LEDs_Beat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LEDs_SyncIn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LEDs_SyncOut</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(SPI2_MISO)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2017.12.18</t>
+    <t>SyncOut</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Power</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AutoRun</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017.12.28</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -941,7 +1001,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1001,22 +1061,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1141,9 +1192,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
@@ -1664,7 +1712,7 @@
   <dimension ref="A1:X51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1672,7 +1720,7 @@
     <col min="1" max="1" width="2.25" customWidth="1"/>
     <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.125" customWidth="1"/>
-    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
     <col min="7" max="7" width="8.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.625" customWidth="1"/>
     <col min="10" max="10" width="10.375" bestFit="1" customWidth="1"/>
@@ -1680,7 +1728,7 @@
     <col min="12" max="12" width="5.75" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3.125" customWidth="1"/>
     <col min="15" max="15" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.25" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.625" customWidth="1"/>
     <col min="18" max="18" width="3.125" customWidth="1"/>
     <col min="19" max="20" width="10.375" bestFit="1" customWidth="1"/>
@@ -1693,7 +1741,7 @@
     </row>
     <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:24" s="5" customFormat="1">
@@ -1706,7 +1754,7 @@
         <v>5</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:24" s="5" customFormat="1">
@@ -1761,11 +1809,12 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
+      <c r="D7" s="9"/>
       <c r="E7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F7" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="L7">
         <v>2</v>
@@ -1773,11 +1822,12 @@
       <c r="M7" t="s">
         <v>23</v>
       </c>
+      <c r="N7" s="6"/>
       <c r="O7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -1792,6 +1842,12 @@
       </c>
       <c r="M8" t="s">
         <v>24</v>
+      </c>
+      <c r="O8" t="s">
+        <v>180</v>
+      </c>
+      <c r="P8" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1953,11 +2009,12 @@
       <c r="C16" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="D16" s="12"/>
       <c r="E16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F16" t="s">
-        <v>187</v>
+        <v>13</v>
       </c>
       <c r="G16" s="13"/>
       <c r="L16">
@@ -1966,7 +2023,7 @@
       <c r="M16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N16" s="12"/>
+      <c r="N16" s="28"/>
       <c r="O16" s="13" t="s">
         <v>85</v>
       </c>
@@ -1991,18 +2048,22 @@
       <c r="M17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="P17" s="30" t="s">
+        <v>13</v>
+      </c>
       <c r="Q17" s="17" t="s">
         <v>13</v>
       </c>
       <c r="R17" s="12"/>
       <c r="S17" s="24" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="T17" s="30" t="s">
-        <v>140</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="2:20">
@@ -2061,15 +2122,15 @@
       <c r="M20" t="s">
         <v>31</v>
       </c>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="42" t="s">
+      <c r="N20" s="25"/>
+      <c r="O20" t="s">
+        <v>184</v>
+      </c>
+      <c r="P20" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q20" s="20" t="s">
         <v>92</v>
-      </c>
-      <c r="R20" s="25"/>
-      <c r="S20" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="21" spans="2:20">
@@ -2107,18 +2168,15 @@
       <c r="M22" t="s">
         <v>33</v>
       </c>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="P22" s="30" t="s">
+        <v>89</v>
+      </c>
       <c r="Q22" s="20" t="s">
         <v>94</v>
-      </c>
-      <c r="R22" s="6"/>
-      <c r="S22" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="T22" s="30" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="23" spans="2:20">
@@ -2178,7 +2236,7 @@
         <v>37</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="2:20" s="5" customFormat="1">
@@ -2354,18 +2412,15 @@
       <c r="C34" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>88</v>
+      </c>
       <c r="G34" s="19" t="s">
         <v>100</v>
-      </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="J34" s="30" t="s">
-        <v>88</v>
       </c>
       <c r="K34" s="13"/>
       <c r="L34">
@@ -2374,12 +2429,12 @@
       <c r="M34" t="s">
         <v>60</v>
       </c>
-      <c r="N34" s="2"/>
+      <c r="N34" s="8"/>
       <c r="O34" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P34" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q34" s="13"/>
       <c r="R34" s="13"/>
@@ -2404,12 +2459,12 @@
       <c r="M35" t="s">
         <v>61</v>
       </c>
-      <c r="N35" s="6"/>
+      <c r="N35" s="9"/>
       <c r="O35" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P35" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q35" s="13"/>
       <c r="R35" s="13"/>
@@ -2434,12 +2489,12 @@
       <c r="M36" t="s">
         <v>62</v>
       </c>
-      <c r="N36" s="7"/>
+      <c r="N36" s="10"/>
       <c r="O36" t="s">
+        <v>187</v>
+      </c>
+      <c r="P36" t="s">
         <v>191</v>
-      </c>
-      <c r="P36" t="s">
-        <v>195</v>
       </c>
       <c r="Q36" s="13"/>
       <c r="R36" s="13"/>
@@ -2461,7 +2516,7 @@
         <v>116</v>
       </c>
       <c r="J37" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="K37" s="13"/>
       <c r="L37">
@@ -2497,17 +2552,17 @@
       <c r="M38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N38" s="28"/>
+      <c r="N38" s="12"/>
       <c r="O38" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P38" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q38" s="13"/>
       <c r="R38" s="13"/>
     </row>
-    <row r="39" spans="2:19">
+    <row r="39" spans="2:19" ht="14.25" thickBot="1">
       <c r="B39">
         <v>21</v>
       </c>
@@ -2531,17 +2586,17 @@
       <c r="M39" t="s">
         <v>63</v>
       </c>
-      <c r="N39" s="8"/>
+      <c r="N39" s="11"/>
       <c r="O39" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P39" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q39" s="13"/>
       <c r="R39" s="13"/>
     </row>
-    <row r="40" spans="2:19">
+    <row r="40" spans="2:19" ht="14.25" thickBot="1">
       <c r="B40">
         <v>23</v>
       </c>
@@ -2565,6 +2620,10 @@
       <c r="M40" t="s">
         <v>66</v>
       </c>
+      <c r="N40" s="25"/>
+      <c r="P40" t="s">
+        <v>200</v>
+      </c>
       <c r="Q40" s="13"/>
       <c r="R40" s="13"/>
     </row>
@@ -2627,7 +2686,7 @@
         <v>65</v>
       </c>
       <c r="P42" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q42" s="13"/>
       <c r="R42" s="13"/>
@@ -2783,7 +2842,7 @@
     <row r="50" spans="3:17">
       <c r="C50" s="30"/>
       <c r="D50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q50" s="13"/>
     </row>
@@ -2812,10 +2871,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G109"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2860,7 +2922,7 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="E5" s="43"/>
+      <c r="E5" s="42"/>
       <c r="F5" t="s">
         <v>124</v>
       </c>
@@ -2977,7 +3039,7 @@
         <v>124</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3079,7 +3141,7 @@
         <v>133</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3212,7 +3274,7 @@
         <v>138</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3257,7 +3319,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3282,10 +3344,10 @@
       </c>
       <c r="E48" s="6"/>
       <c r="F48" t="s">
+        <v>142</v>
+      </c>
+      <c r="G48" t="s">
         <v>143</v>
-      </c>
-      <c r="G48" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3294,10 +3356,10 @@
       </c>
       <c r="E49" s="7"/>
       <c r="F49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3306,10 +3368,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3318,15 +3380,15 @@
       </c>
       <c r="E51" s="28"/>
       <c r="F51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="B52" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="14.25" thickBot="1">
@@ -3349,10 +3411,10 @@
       </c>
       <c r="E54" s="15"/>
       <c r="F54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G54" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3361,10 +3423,10 @@
       </c>
       <c r="E55" s="12"/>
       <c r="F55" t="s">
+        <v>149</v>
+      </c>
+      <c r="G55" s="30" t="s">
         <v>150</v>
-      </c>
-      <c r="G55" s="30" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3389,10 +3451,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s">
+        <v>151</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3401,10 +3463,10 @@
       </c>
       <c r="E59" s="12"/>
       <c r="F59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3413,483 +3475,607 @@
       <c r="G60" s="13"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="5" t="s">
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="B63" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
-      <c r="B62" s="5" t="s">
+    <row r="64" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B64" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="14.25" thickBot="1">
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="E65" s="15"/>
+      <c r="F65" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G65" s="30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="E66" s="12"/>
+      <c r="F66" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G66" s="30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B63" s="5" t="s">
+    <row r="68" spans="2:7" s="5" customFormat="1">
+      <c r="B68" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F63" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G63" s="5" t="s">
+      <c r="F68" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G68" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B64">
+    <row r="69" spans="2:7">
+      <c r="B69">
         <v>1</v>
       </c>
-      <c r="E64" s="15"/>
-      <c r="F64" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="G64" s="30" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="B65">
-        <v>2</v>
-      </c>
-      <c r="E65" s="12"/>
-      <c r="F65" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="G65" s="30" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="B66" s="5" t="s">
+      <c r="E69" s="13"/>
+      <c r="F69" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="E70" s="13"/>
+      <c r="F70" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="G70" s="31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="5" customFormat="1">
-      <c r="B67" s="5" t="s">
+    <row r="72" spans="2:7" s="5" customFormat="1">
+      <c r="B72" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F67" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G67" s="5" t="s">
+      <c r="F72" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G72" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
-      <c r="B68">
+    <row r="73" spans="2:7">
+      <c r="B73">
         <v>1</v>
-      </c>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="G68" s="13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="B69">
-        <v>2</v>
-      </c>
-      <c r="E69" s="13"/>
-      <c r="F69" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="G69" s="31" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="B70" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" s="5" customFormat="1">
-      <c r="B71" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="G72" s="13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="B73">
-        <v>2</v>
       </c>
       <c r="E73" s="13"/>
       <c r="F73" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="G73" s="31" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="B74" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G74" s="31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="5" customFormat="1">
-      <c r="B75" s="5" t="s">
+    <row r="76" spans="2:7" s="5" customFormat="1">
+      <c r="B76" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F75" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G75" s="5" t="s">
+      <c r="F76" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G76" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
-      <c r="B76">
+    <row r="77" spans="2:7">
+      <c r="B77">
         <v>1</v>
       </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s">
-        <v>177</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="14.25" thickBot="1">
-      <c r="B77">
-        <v>2</v>
-      </c>
-      <c r="E77" s="12"/>
+      <c r="E77" s="2"/>
       <c r="F77" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="14.25" thickBot="1">
+    <row r="78" spans="2:7" ht="14.25" thickBot="1">
       <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="E78" s="12"/>
+      <c r="F78" t="s">
+        <v>176</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" ht="14.25" thickBot="1">
+      <c r="B79">
         <v>3</v>
       </c>
-      <c r="E78" s="25"/>
-      <c r="F78" t="s">
-        <v>177</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="5" t="s">
+      <c r="E79" s="25"/>
+      <c r="F79" t="s">
+        <v>176</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="B82" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="2:7">
-      <c r="B81" s="5" t="s">
+    <row r="83" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B83" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B84" s="33">
+        <v>1</v>
+      </c>
+      <c r="E84" s="34"/>
+      <c r="F84" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="G84" s="38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="E85" s="12"/>
+      <c r="F85" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="G85" s="30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="B86" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="82" spans="2:7" s="5" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B82" s="5" t="s">
+    <row r="87" spans="1:7" s="5" customFormat="1">
+      <c r="B87" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F82" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G82" s="5" t="s">
+      <c r="F87" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G87" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="2:7" s="5" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B83" s="33">
+    <row r="88" spans="1:7" s="5" customFormat="1">
+      <c r="B88" s="33">
         <v>1</v>
       </c>
-      <c r="E83" s="34"/>
-      <c r="F83" s="33" t="s">
+      <c r="E88" s="36"/>
+      <c r="F88" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="G88" s="38" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="F89" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="G83" s="38" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7">
-      <c r="B84">
-        <v>2</v>
-      </c>
-      <c r="E84" s="12"/>
-      <c r="F84" s="33" t="s">
+      <c r="G89" t="s">
         <v>159</v>
       </c>
-      <c r="G84" s="30" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7">
-      <c r="B85" s="5" t="s">
+    </row>
+    <row r="90" spans="1:7">
+      <c r="B90" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="86" spans="2:7" s="5" customFormat="1">
-      <c r="B86" s="5" t="s">
+    <row r="91" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B91" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F86" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G86" s="5" t="s">
+      <c r="F91" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G91" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="2:7" s="5" customFormat="1">
-      <c r="B87" s="33">
+    <row r="92" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B92" s="33">
         <v>1</v>
       </c>
-      <c r="E87" s="36"/>
-      <c r="F87" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="G87" s="38" t="s">
+      <c r="E92" s="37"/>
+      <c r="F92" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="G92" s="38" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="E93" s="12"/>
+      <c r="F93" t="s">
+        <v>160</v>
+      </c>
+      <c r="G93" s="30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="B94" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="88" spans="2:7">
-      <c r="B88">
-        <v>2</v>
-      </c>
-      <c r="F88" s="35" t="s">
+    <row r="95" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B95" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B96" s="33">
+        <v>1</v>
+      </c>
+      <c r="E96" s="41"/>
+      <c r="F96" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="G96" s="38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="E97" s="12"/>
+      <c r="F97" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="G97" s="30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="B98" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="5" customFormat="1">
+      <c r="B99" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="5" customFormat="1">
+      <c r="B100" s="33">
+        <v>1</v>
+      </c>
+      <c r="E100" s="40"/>
+      <c r="F100" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="G100" s="38" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="E101" s="12"/>
+      <c r="F101" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="G101" s="30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="B102" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="5" customFormat="1">
+      <c r="B103" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="5" customFormat="1">
+      <c r="B104" s="33">
+        <v>1</v>
+      </c>
+      <c r="E104" s="39"/>
+      <c r="F104" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G104" s="38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="E105" s="12"/>
+      <c r="F105" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="89" spans="2:7">
-      <c r="B89" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" s="5" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B90" s="5" t="s">
+      <c r="G105" s="30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="B106" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="5" customFormat="1">
+      <c r="B107" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F90" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G90" s="5" t="s">
+      <c r="F107" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G107" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="2:7" s="5" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B91" s="33">
+    <row r="108" spans="1:7">
+      <c r="B108">
         <v>1</v>
       </c>
-      <c r="E91" s="37"/>
-      <c r="F91" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="G91" s="38" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7">
-      <c r="B92">
-        <v>2</v>
-      </c>
-      <c r="E92" s="12"/>
-      <c r="F92" t="s">
-        <v>161</v>
-      </c>
-      <c r="G92" s="30" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7">
-      <c r="B93" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" s="5" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B94" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" s="5" customFormat="1" ht="14.25" thickBot="1">
-      <c r="B95" s="33">
-        <v>1</v>
-      </c>
-      <c r="E95" s="41"/>
-      <c r="F95" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="G95" s="38" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7">
-      <c r="B96">
-        <v>2</v>
-      </c>
-      <c r="E96" s="12"/>
-      <c r="F96" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="G96" s="30" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7">
-      <c r="B97" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" s="5" customFormat="1">
-      <c r="B98" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" s="5" customFormat="1">
-      <c r="B99" s="33">
-        <v>1</v>
-      </c>
-      <c r="E99" s="40"/>
-      <c r="F99" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="G99" s="38" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7">
-      <c r="B100">
-        <v>2</v>
-      </c>
-      <c r="E100" s="12"/>
-      <c r="F100" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="G100" s="30" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7">
-      <c r="B101" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" s="5" customFormat="1">
-      <c r="B102" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G102" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" s="5" customFormat="1">
-      <c r="B103" s="33">
-        <v>1</v>
-      </c>
-      <c r="E103" s="39"/>
-      <c r="F103" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="G103" s="38" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7">
-      <c r="B104">
-        <v>2</v>
-      </c>
-      <c r="E104" s="12"/>
-      <c r="F104" t="s">
-        <v>161</v>
-      </c>
-      <c r="G104" s="30" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7">
-      <c r="B105" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7" s="5" customFormat="1">
-      <c r="B106" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G106" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="2:7">
-      <c r="B107">
-        <v>1</v>
-      </c>
-      <c r="E107" s="2"/>
-      <c r="F107" t="s">
-        <v>177</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="108" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B108">
-        <v>2</v>
-      </c>
-      <c r="E108" s="12"/>
+      <c r="E108" s="2"/>
       <c r="F108" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="109" spans="2:7" ht="14.25" thickBot="1">
+    <row r="109" spans="1:7" ht="14.25" thickBot="1">
       <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="E109" s="12"/>
+      <c r="F109" t="s">
+        <v>176</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="14.25" thickBot="1">
+      <c r="B110">
         <v>3</v>
       </c>
-      <c r="E109" s="25"/>
-      <c r="F109" t="s">
-        <v>177</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>180</v>
+      <c r="E110" s="25"/>
+      <c r="F110" t="s">
+        <v>176</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="B113" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="E115" s="8"/>
+      <c r="F115" t="s">
+        <v>203</v>
+      </c>
+      <c r="G115" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="E116" s="9"/>
+      <c r="F116" t="s">
+        <v>203</v>
+      </c>
+      <c r="G116" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="B117">
+        <v>3</v>
+      </c>
+      <c r="E117" s="12"/>
+      <c r="F117" t="s">
+        <v>203</v>
+      </c>
+      <c r="G117" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="B118">
+        <v>4</v>
+      </c>
+      <c r="E118" s="10"/>
+      <c r="F118" t="s">
+        <v>203</v>
+      </c>
+      <c r="G118" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="B119">
+        <v>5</v>
+      </c>
+      <c r="F119" t="s">
+        <v>208</v>
+      </c>
+      <c r="G119" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="B120">
+        <v>6</v>
+      </c>
+      <c r="F120" t="s">
+        <v>208</v>
+      </c>
+      <c r="G120" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="14.25" thickBot="1">
+      <c r="B121">
+        <v>7</v>
+      </c>
+      <c r="E121" s="11"/>
+      <c r="F121" t="s">
+        <v>203</v>
+      </c>
+      <c r="G121" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="14.25" thickBot="1">
+      <c r="B122">
+        <v>8</v>
+      </c>
+      <c r="E122" s="25"/>
+      <c r="F122" t="s">
+        <v>210</v>
+      </c>
+      <c r="G122" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" fitToHeight="2" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;F&amp;C&amp;P&amp;R&amp;D</oddFooter>
   </headerFooter>

--- a/KIK01接続一覧表.xlsx
+++ b/KIK01接続一覧表.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gizmo\Documents\Develop\KIK01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="22035" windowHeight="11445"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="220">
   <si>
     <t>KIK01接続一覧表</t>
     <rPh sb="5" eb="7">
@@ -769,18 +774,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>LEDs_Beat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LEDs_SyncIn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LEDs_SyncOut</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(SPI2_MISO)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -797,54 +790,42 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Check3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LEDs_AutoRunSW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LEDs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LEDIN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Beat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SyncIn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>SyncOut</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(SyncIn2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SyncIn1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Check3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LEDs_AutoRunSW</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LEDs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LEDIN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LED</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GND</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Beat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SyncIn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SyncOut</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -861,15 +842,67 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2017.12.28</t>
+    <t>SyncInKik</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sync</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(SyncOutNos)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SyncInNos</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(SyncOutKik)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LEDs_SyncInKik</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LEDs_SyncInNos</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(LEDsBeatNos)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(LEDsSyncOutKik)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(LEDsSyncOutNos)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LEDs_BeatKik</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2019.03.01</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1203,6 +1236,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1464,7 +1505,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1496,9 +1537,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1530,6 +1572,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1705,17 +1748,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:X51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.25" customWidth="1"/>
     <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
@@ -1734,22 +1777,22 @@
     <col min="19" max="20" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="5" customFormat="1">
+    <row r="1" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="5" customFormat="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="5" customFormat="1">
+    <row r="5" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
@@ -1757,7 +1800,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="5" customFormat="1">
+    <row r="6" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1802,7 +1845,7 @@
       </c>
       <c r="X6"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>1</v>
       </c>
@@ -1814,7 +1857,7 @@
         <v>180</v>
       </c>
       <c r="F7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="L7">
         <v>2</v>
@@ -1827,30 +1870,42 @@
         <v>180</v>
       </c>
       <c r="P7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
+      <c r="D8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" t="s">
+        <v>211</v>
+      </c>
       <c r="L8">
         <v>4</v>
       </c>
       <c r="M8" t="s">
         <v>24</v>
       </c>
+      <c r="N8" t="s">
+        <v>208</v>
+      </c>
       <c r="O8" t="s">
         <v>180</v>
       </c>
       <c r="P8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>5</v>
       </c>
@@ -1875,7 +1930,7 @@
       <c r="R9" s="13"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>7</v>
       </c>
@@ -1899,7 +1954,7 @@
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>9</v>
       </c>
@@ -1917,7 +1972,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>11</v>
       </c>
@@ -1935,7 +1990,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>13</v>
       </c>
@@ -1953,7 +2008,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>15</v>
       </c>
@@ -1978,7 +2033,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B15">
         <v>17</v>
       </c>
@@ -2002,7 +2057,7 @@
       <c r="S15" s="13"/>
       <c r="T15" s="29"/>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B16">
         <v>19</v>
       </c>
@@ -2034,7 +2089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:20">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B17">
         <v>21</v>
       </c>
@@ -2060,13 +2115,13 @@
       </c>
       <c r="R17" s="12"/>
       <c r="S17" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="T17" s="30" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B18">
         <v>23</v>
       </c>
@@ -2087,7 +2142,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:20" ht="14.25" thickBot="1">
+    <row r="19" spans="2:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>25</v>
       </c>
@@ -2108,7 +2163,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="2:20" ht="14.25" thickBot="1">
+    <row r="20" spans="2:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>27</v>
       </c>
@@ -2127,13 +2182,13 @@
         <v>184</v>
       </c>
       <c r="P20" s="30" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q20" s="20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="2:20">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B21">
         <v>29</v>
       </c>
@@ -2154,7 +2209,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="2:20">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B22">
         <v>31</v>
       </c>
@@ -2179,7 +2234,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="2:20">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B23">
         <v>33</v>
       </c>
@@ -2197,7 +2252,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="2:20">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B24">
         <v>35</v>
       </c>
@@ -2214,7 +2269,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="2:20">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B25">
         <v>37</v>
       </c>
@@ -2231,7 +2286,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="2:20" s="5" customFormat="1">
+    <row r="27" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="5" t="s">
         <v>37</v>
       </c>
@@ -2239,7 +2294,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="2:20" s="5" customFormat="1">
+    <row r="28" spans="2:20" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B28" s="5" t="s">
         <v>4</v>
       </c>
@@ -2283,7 +2338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:20">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B29">
         <v>1</v>
       </c>
@@ -2297,10 +2352,19 @@
       <c r="M29" t="s">
         <v>56</v>
       </c>
+      <c r="N29" t="s">
+        <v>70</v>
+      </c>
+      <c r="O29" t="s">
+        <v>185</v>
+      </c>
+      <c r="P29" t="s">
+        <v>214</v>
+      </c>
       <c r="Q29" s="13"/>
       <c r="R29" s="13"/>
     </row>
-    <row r="30" spans="2:20">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B30">
         <v>3</v>
       </c>
@@ -2325,10 +2389,19 @@
       <c r="M30" t="s">
         <v>57</v>
       </c>
+      <c r="N30" t="s">
+        <v>217</v>
+      </c>
+      <c r="O30" t="s">
+        <v>185</v>
+      </c>
+      <c r="P30" t="s">
+        <v>215</v>
+      </c>
       <c r="Q30" s="13"/>
       <c r="R30" s="13"/>
     </row>
-    <row r="31" spans="2:20">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B31">
         <v>5</v>
       </c>
@@ -2353,10 +2426,19 @@
       <c r="M31" t="s">
         <v>58</v>
       </c>
+      <c r="N31" t="s">
+        <v>70</v>
+      </c>
+      <c r="O31" t="s">
+        <v>185</v>
+      </c>
+      <c r="P31" t="s">
+        <v>216</v>
+      </c>
       <c r="Q31" s="13"/>
       <c r="R31" s="13"/>
     </row>
-    <row r="32" spans="2:20">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B32">
         <v>7</v>
       </c>
@@ -2378,7 +2460,7 @@
       <c r="Q32" s="13"/>
       <c r="R32" s="13"/>
     </row>
-    <row r="33" spans="2:19">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B33">
         <v>9</v>
       </c>
@@ -2405,7 +2487,7 @@
       <c r="Q33" s="13"/>
       <c r="R33" s="13"/>
     </row>
-    <row r="34" spans="2:19">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B34">
         <v>11</v>
       </c>
@@ -2434,12 +2516,12 @@
         <v>187</v>
       </c>
       <c r="P34" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="Q34" s="13"/>
       <c r="R34" s="13"/>
     </row>
-    <row r="35" spans="2:19">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B35">
         <v>13</v>
       </c>
@@ -2464,12 +2546,12 @@
         <v>187</v>
       </c>
       <c r="P35" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="Q35" s="13"/>
       <c r="R35" s="13"/>
     </row>
-    <row r="36" spans="2:19">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B36">
         <v>15</v>
       </c>
@@ -2494,12 +2576,12 @@
         <v>187</v>
       </c>
       <c r="P36" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="Q36" s="13"/>
       <c r="R36" s="13"/>
     </row>
-    <row r="37" spans="2:19" ht="14.25" thickBot="1">
+    <row r="37" spans="2:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>17</v>
       </c>
@@ -2516,7 +2598,7 @@
         <v>116</v>
       </c>
       <c r="J37" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="K37" s="13"/>
       <c r="L37">
@@ -2528,7 +2610,7 @@
       <c r="Q37" s="13"/>
       <c r="R37" s="13"/>
     </row>
-    <row r="38" spans="2:19" ht="14.25" thickBot="1">
+    <row r="38" spans="2:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>19</v>
       </c>
@@ -2562,7 +2644,7 @@
       <c r="Q38" s="13"/>
       <c r="R38" s="13"/>
     </row>
-    <row r="39" spans="2:19" ht="14.25" thickBot="1">
+    <row r="39" spans="2:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>21</v>
       </c>
@@ -2596,7 +2678,7 @@
       <c r="Q39" s="13"/>
       <c r="R39" s="13"/>
     </row>
-    <row r="40" spans="2:19" ht="14.25" thickBot="1">
+    <row r="40" spans="2:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>23</v>
       </c>
@@ -2622,12 +2704,12 @@
       </c>
       <c r="N40" s="25"/>
       <c r="P40" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="Q40" s="13"/>
       <c r="R40" s="13"/>
     </row>
-    <row r="41" spans="2:19">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B41">
         <v>25</v>
       </c>
@@ -2661,7 +2743,7 @@
       <c r="Q41" s="13"/>
       <c r="R41" s="13"/>
     </row>
-    <row r="42" spans="2:19">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B42">
         <v>27</v>
       </c>
@@ -2686,12 +2768,12 @@
         <v>65</v>
       </c>
       <c r="P42" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q42" s="13"/>
       <c r="R42" s="13"/>
     </row>
-    <row r="43" spans="2:19">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B43">
         <v>29</v>
       </c>
@@ -2725,7 +2807,7 @@
       <c r="Q43" s="13"/>
       <c r="R43" s="13"/>
     </row>
-    <row r="44" spans="2:19">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B44">
         <v>31</v>
       </c>
@@ -2759,7 +2841,7 @@
       <c r="Q44" s="13"/>
       <c r="R44" s="13"/>
     </row>
-    <row r="45" spans="2:19">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B45">
         <v>33</v>
       </c>
@@ -2790,7 +2872,7 @@
       <c r="R45" s="31"/>
       <c r="S45" s="14"/>
     </row>
-    <row r="46" spans="2:19">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B46">
         <v>35</v>
       </c>
@@ -2809,7 +2891,7 @@
       </c>
       <c r="Q46" s="13"/>
     </row>
-    <row r="47" spans="2:19">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B47">
         <v>37</v>
       </c>
@@ -2828,25 +2910,25 @@
       </c>
       <c r="Q47" s="13"/>
     </row>
-    <row r="48" spans="2:19">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.15">
       <c r="G48" s="14"/>
       <c r="Q48" s="13"/>
     </row>
-    <row r="49" spans="3:17">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C49" s="23"/>
       <c r="D49" t="s">
         <v>114</v>
       </c>
       <c r="Q49" s="13"/>
     </row>
-    <row r="50" spans="3:17">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C50" s="30"/>
       <c r="D50" t="s">
         <v>140</v>
       </c>
       <c r="Q50" s="13"/>
     </row>
-    <row r="51" spans="3:17">
+    <row r="51" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C51" s="24"/>
       <c r="D51" t="s">
         <v>115</v>
@@ -2859,7 +2941,7 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;F&amp;CPage &amp;P&amp;R&amp;D</oddFooter>
+    <oddFooter xml:space="preserve">&amp;L&amp;F&amp;CPage &amp;P&amp;R&amp;D &amp;T  </oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="51" max="16383" man="1"/>
@@ -2870,7 +2952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2880,22 +2962,22 @@
       <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B2" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="5" customFormat="1">
+    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
@@ -2906,7 +2988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>1</v>
       </c>
@@ -2918,7 +3000,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>2</v>
       </c>
@@ -2930,12 +3012,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="5" customFormat="1">
+    <row r="7" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -2946,7 +3028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>1</v>
       </c>
@@ -2958,7 +3040,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>2</v>
       </c>
@@ -2970,7 +3052,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>3</v>
       </c>
@@ -2982,7 +3064,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>4</v>
       </c>
@@ -2994,7 +3076,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>5</v>
       </c>
@@ -3006,7 +3088,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" thickBot="1">
+    <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>6</v>
       </c>
@@ -3018,7 +3100,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.25" thickBot="1">
+    <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>7</v>
       </c>
@@ -3030,7 +3112,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15">
         <v>8</v>
       </c>
@@ -3042,12 +3124,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B17" s="27" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="5" customFormat="1">
+    <row r="18" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="5" t="s">
         <v>4</v>
       </c>
@@ -3058,7 +3140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B19">
         <v>1</v>
       </c>
@@ -3070,7 +3152,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B20">
         <v>2</v>
       </c>
@@ -3082,7 +3164,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B21">
         <v>3</v>
       </c>
@@ -3094,7 +3176,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B22">
         <v>4</v>
       </c>
@@ -3106,7 +3188,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B23">
         <v>5</v>
       </c>
@@ -3118,7 +3200,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B24">
         <v>6</v>
       </c>
@@ -3132,7 +3214,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B25">
         <v>7</v>
       </c>
@@ -3144,12 +3226,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B26" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="5" customFormat="1">
+    <row r="27" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="5" t="s">
         <v>4</v>
       </c>
@@ -3160,7 +3242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B28">
         <v>1</v>
       </c>
@@ -3172,7 +3254,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B29">
         <v>2</v>
       </c>
@@ -3184,17 +3266,17 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B32" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="5" customFormat="1">
+    <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="5" t="s">
         <v>4</v>
       </c>
@@ -3205,7 +3287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B34">
         <v>1</v>
       </c>
@@ -3217,7 +3299,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B35">
         <v>2</v>
       </c>
@@ -3229,7 +3311,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B36">
         <v>3</v>
       </c>
@@ -3241,7 +3323,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B37">
         <v>4</v>
       </c>
@@ -3253,7 +3335,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B38">
         <v>5</v>
       </c>
@@ -3265,7 +3347,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B39">
         <v>6</v>
       </c>
@@ -3277,12 +3359,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B40" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="5" customFormat="1">
+    <row r="41" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="5" t="s">
         <v>4</v>
       </c>
@@ -3293,7 +3375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B42">
         <v>1</v>
       </c>
@@ -3305,7 +3387,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B43">
         <v>2</v>
       </c>
@@ -3317,17 +3399,17 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B46" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="5" customFormat="1">
+    <row r="47" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B47" s="5" t="s">
         <v>4</v>
       </c>
@@ -3338,7 +3420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B48">
         <v>1</v>
       </c>
@@ -3350,7 +3432,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B49">
         <v>2</v>
       </c>
@@ -3362,7 +3444,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B50">
         <v>3</v>
       </c>
@@ -3374,7 +3456,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B51">
         <v>4</v>
       </c>
@@ -3386,12 +3468,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B52" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="14.25" thickBot="1">
+    <row r="53" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B53" s="5" t="s">
         <v>4</v>
       </c>
@@ -3405,7 +3487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="14.25" thickBot="1">
+    <row r="54" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>1</v>
       </c>
@@ -3417,7 +3499,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B55">
         <v>2</v>
       </c>
@@ -3429,12 +3511,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B56" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="5" customFormat="1">
+    <row r="57" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B57" s="5" t="s">
         <v>4</v>
       </c>
@@ -3445,7 +3527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B58">
         <v>1</v>
       </c>
@@ -3457,7 +3539,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B59">
         <v>2</v>
       </c>
@@ -3469,27 +3551,27 @@
         <v>153</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B63" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1">
+    <row r="64" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="5" t="s">
         <v>4</v>
       </c>
@@ -3500,7 +3582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="2:7" ht="14.25" thickBot="1">
+    <row r="65" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>1</v>
       </c>
@@ -3512,7 +3594,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="66" spans="2:7">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B66">
         <v>2</v>
       </c>
@@ -3524,12 +3606,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="2:7">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B67" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="68" spans="2:7" s="5" customFormat="1">
+    <row r="68" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B68" s="5" t="s">
         <v>4</v>
       </c>
@@ -3540,7 +3622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="2:7">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B69">
         <v>1</v>
       </c>
@@ -3552,7 +3634,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="2:7">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B70">
         <v>2</v>
       </c>
@@ -3564,12 +3646,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="71" spans="2:7">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B71" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="72" spans="2:7" s="5" customFormat="1">
+    <row r="72" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B72" s="5" t="s">
         <v>4</v>
       </c>
@@ -3580,7 +3662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="2:7">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B73">
         <v>1</v>
       </c>
@@ -3592,7 +3674,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="74" spans="2:7">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B74">
         <v>2</v>
       </c>
@@ -3604,12 +3686,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="75" spans="2:7">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B75" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="2:7" s="5" customFormat="1">
+    <row r="76" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B76" s="5" t="s">
         <v>4</v>
       </c>
@@ -3620,7 +3702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="2:7">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B77">
         <v>1</v>
       </c>
@@ -3632,7 +3714,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="78" spans="2:7" ht="14.25" thickBot="1">
+    <row r="78" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>2</v>
       </c>
@@ -3644,7 +3726,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="2:7" ht="14.25" thickBot="1">
+    <row r="79" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>3</v>
       </c>
@@ -3656,17 +3738,17 @@
         <v>179</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B82" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1">
+    <row r="83" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="5" t="s">
         <v>4</v>
       </c>
@@ -3677,7 +3759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1">
+    <row r="84" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B84" s="33">
         <v>1</v>
       </c>
@@ -3689,7 +3771,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B85">
         <v>2</v>
       </c>
@@ -3701,12 +3783,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B86" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="5" customFormat="1">
+    <row r="87" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B87" s="5" t="s">
         <v>4</v>
       </c>
@@ -3717,7 +3799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="5" customFormat="1">
+    <row r="88" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B88" s="33">
         <v>1</v>
       </c>
@@ -3729,7 +3811,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B89">
         <v>2</v>
       </c>
@@ -3740,12 +3822,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B90" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1">
+    <row r="91" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B91" s="5" t="s">
         <v>4</v>
       </c>
@@ -3756,7 +3838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1">
+    <row r="92" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B92" s="33">
         <v>1</v>
       </c>
@@ -3768,7 +3850,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B93">
         <v>2</v>
       </c>
@@ -3780,12 +3862,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B94" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1">
+    <row r="95" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B95" s="5" t="s">
         <v>4</v>
       </c>
@@ -3796,7 +3878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1">
+    <row r="96" spans="1:7" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B96" s="33">
         <v>1</v>
       </c>
@@ -3808,7 +3890,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B97">
         <v>2</v>
       </c>
@@ -3820,12 +3902,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B98" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="5" customFormat="1">
+    <row r="99" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B99" s="5" t="s">
         <v>4</v>
       </c>
@@ -3836,7 +3918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="5" customFormat="1">
+    <row r="100" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B100" s="33">
         <v>1</v>
       </c>
@@ -3848,7 +3930,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B101">
         <v>2</v>
       </c>
@@ -3860,12 +3942,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B102" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="5" customFormat="1">
+    <row r="103" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B103" s="5" t="s">
         <v>4</v>
       </c>
@@ -3876,7 +3958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:7" s="5" customFormat="1">
+    <row r="104" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B104" s="33">
         <v>1</v>
       </c>
@@ -3888,7 +3970,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B105">
         <v>2</v>
       </c>
@@ -3900,12 +3982,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B106" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="1:7" s="5" customFormat="1">
+    <row r="107" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B107" s="5" t="s">
         <v>4</v>
       </c>
@@ -3916,7 +3998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B108">
         <v>1</v>
       </c>
@@ -3928,7 +4010,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="14.25" thickBot="1">
+    <row r="109" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B109">
         <v>2</v>
       </c>
@@ -3940,7 +4022,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="14.25" thickBot="1">
+    <row r="110" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B110">
         <v>3</v>
       </c>
@@ -3952,17 +4034,17 @@
         <v>179</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A112" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B113" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A114" s="5"/>
       <c r="B114" s="5" t="s">
         <v>4</v>
@@ -3977,98 +4059,98 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B115">
         <v>1</v>
       </c>
       <c r="E115" s="8"/>
       <c r="F115" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G115" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B116">
         <v>2</v>
       </c>
       <c r="E116" s="9"/>
       <c r="F116" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G116" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B117">
         <v>3</v>
       </c>
       <c r="E117" s="12"/>
       <c r="F117" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G117" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B118">
         <v>4</v>
       </c>
       <c r="E118" s="10"/>
       <c r="F118" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G118" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B119">
         <v>5</v>
       </c>
       <c r="F119" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G119" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B120">
         <v>6</v>
       </c>
       <c r="F120" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G120" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="14.25" thickBot="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B121">
         <v>7</v>
       </c>
       <c r="E121" s="11"/>
       <c r="F121" t="s">
+        <v>197</v>
+      </c>
+      <c r="G121" t="s">
         <v>203</v>
       </c>
-      <c r="G121" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="14.25" thickBot="1">
+    </row>
+    <row r="122" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B122">
         <v>8</v>
       </c>
       <c r="E122" s="25"/>
       <c r="F122" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G122" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -4083,12 +4165,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
